--- a/Assets/06.Table/StudentTable.xlsx
+++ b/Assets/06.Table/StudentTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PYJ\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BBC6161-87C5-480E-A8D7-F89030F120B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A042A-E81A-4EA9-9B45-0494C3CAA4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="2835" windowWidth="36765" windowHeight="17355" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentTable" sheetId="2" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3768,8 +3768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536973B6-8AC6-4718-8BFC-B5F1F19019F3}">
   <dimension ref="D2:AC104"/>
   <sheetViews>
-    <sheetView topLeftCell="K74" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q104"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/StudentTable.xlsx
+++ b/Assets/06.Table/StudentTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591A042A-E81A-4EA9-9B45-0494C3CAA4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD8218-830A-4DBC-B5E9-2F354C70DBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentTable" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="55">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,10 @@
   </si>
   <si>
     <t>절정 제자</t>
+  </si>
+  <si>
+    <t>실제 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -613,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3768,8 +3772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536973B6-8AC6-4718-8BFC-B5F1F19019F3}">
   <dimension ref="D2:AC104"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3804,7 +3808,7 @@
       </c>
       <c r="P3">
         <f>P104</f>
-        <v>275</v>
+        <v>137.5</v>
       </c>
       <c r="T3" t="s">
         <v>14</v>
@@ -3820,6 +3824,9 @@
       <c r="G4" t="s">
         <v>43</v>
       </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
       <c r="K4" t="s">
         <v>13</v>
       </c>
@@ -3873,6 +3880,10 @@
       <c r="G5" s="5" t="s">
         <v>39</v>
       </c>
+      <c r="H5">
+        <f>G5*2</f>
+        <v>1000</v>
+      </c>
       <c r="K5">
         <v>0</v>
       </c>
@@ -3887,12 +3898,12 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <f>M5/(VLOOKUP(QUOTIENT(K5,5),D:G,4,FALSE)*2)</f>
-        <v>0.5</v>
+        <f>M5/(VLOOKUP(QUOTIENT(K5,5),D:H,5,FALSE)*2)</f>
+        <v>0.25</v>
       </c>
       <c r="P5">
         <f>SUM(O5:$O$5)</f>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
         <v>0.05</v>
@@ -3941,6 +3952,10 @@
       <c r="G6" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H24" si="1">G6*2</f>
+        <v>2000</v>
+      </c>
       <c r="K6">
         <v>1</v>
       </c>
@@ -3948,19 +3963,19 @@
         <v>8</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" ref="M6:M69" si="1">VLOOKUP(QUOTIENT(K6,5),D:G,4,FALSE)*N6</f>
+        <f t="shared" ref="M6:M69" si="2">VLOOKUP(QUOTIENT(K6,5),D:G,4,FALSE)*N6</f>
         <v>500</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O69" si="2">M6/(VLOOKUP(QUOTIENT(K6,5),D:G,4,FALSE)*2)</f>
-        <v>0.5</v>
+        <f t="shared" ref="O6:O69" si="3">M6/(VLOOKUP(QUOTIENT(K6,5),D:H,5,FALSE)*2)</f>
+        <v>0.25</v>
       </c>
       <c r="P6">
         <f>SUM(O$5:$O6)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q6">
         <f>ROUNDUP(Q5+0.05*N6*(QUOTIENT(K6,2.5)+1),2)</f>
@@ -3968,7 +3983,7 @@
       </c>
       <c r="R6">
         <f>(Q6-Q5)*100/O6</f>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T6">
         <v>2</v>
@@ -3980,11 +3995,11 @@
         <v>20000000000000</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W14" si="3">VLOOKUP(U6,K:Q,7,FALSE)+$AC$84</f>
+        <f t="shared" ref="W6:W14" si="4">VLOOKUP(U6,K:Q,7,FALSE)+$AC$84</f>
         <v>387.6</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" ref="X6:X14" si="4">((100+W6*100)/100)*V6</f>
+        <f t="shared" ref="X6:X14" si="5">((100+W6*100)/100)*V6</f>
         <v>7772000000000000</v>
       </c>
       <c r="Y6">
@@ -3995,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="AB6" s="2">
-        <f t="shared" ref="AB6:AB69" si="5">AB5*(10)</f>
+        <f t="shared" ref="AB6:AB69" si="6">AB5*(10)</f>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="AC6">
@@ -4015,6 +4030,10 @@
       <c r="G7" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
       <c r="K7">
         <v>2</v>
       </c>
@@ -4022,27 +4041,27 @@
         <v>8</v>
       </c>
       <c r="M7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="P7">
         <f>SUM(O$5:$O7)</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q70" si="6">ROUNDUP(Q6+0.05*N7*(QUOTIENT(K7,2.5)+1),2)</f>
+        <f t="shared" ref="Q7:Q70" si="7">ROUNDUP(Q6+0.05*N7*(QUOTIENT(K7,2.5)+1),2)</f>
         <v>0.15</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R70" si="7">(Q7-Q6)*100/O7</f>
-        <v>9.9999999999999982</v>
+        <f t="shared" ref="R7:R70" si="8">(Q7-Q6)*100/O7</f>
+        <v>19.999999999999996</v>
       </c>
       <c r="T7">
         <v>3</v>
@@ -4054,11 +4073,11 @@
         <v>40000000000000</v>
       </c>
       <c r="W7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>403.2</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.6168E+16</v>
       </c>
       <c r="Y7">
@@ -4069,7 +4088,7 @@
         <v>3</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1E+110</v>
       </c>
       <c r="AC7">
@@ -4089,6 +4108,10 @@
       <c r="G8" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
       <c r="K8">
         <v>3</v>
       </c>
@@ -4096,27 +4119,27 @@
         <v>8</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="P8">
         <f>SUM(O$5:$O8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="R8">
-        <f t="shared" si="7"/>
-        <v>20</v>
+        <f t="shared" si="8"/>
+        <v>40</v>
       </c>
       <c r="T8">
         <v>4</v>
@@ -4128,11 +4151,11 @@
         <v>60000000000000</v>
       </c>
       <c r="W8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>432</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.598E+16</v>
       </c>
       <c r="Y8">
@@ -4143,7 +4166,7 @@
         <v>4</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="AC8">
@@ -4163,6 +4186,10 @@
       <c r="G9" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
       <c r="K9">
         <v>4</v>
       </c>
@@ -4170,27 +4197,27 @@
         <v>8</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>500</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="P9">
         <f>SUM(O$5:$O9)</f>
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.35</v>
       </c>
       <c r="R9">
-        <f t="shared" si="7"/>
-        <v>19.999999999999996</v>
+        <f t="shared" si="8"/>
+        <v>39.999999999999993</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -4202,11 +4229,11 @@
         <v>80000000000000</v>
       </c>
       <c r="W9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>478</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.832E+16</v>
       </c>
       <c r="Y9">
@@ -4217,7 +4244,7 @@
         <v>5</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="AC9">
@@ -4237,6 +4264,10 @@
       <c r="G10" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
       <c r="K10">
         <v>5</v>
       </c>
@@ -4244,27 +4275,27 @@
         <v>8</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="P10">
         <f>SUM(O$5:$O10)</f>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="R10">
-        <f t="shared" si="7"/>
-        <v>30.000000000000004</v>
+        <f t="shared" si="8"/>
+        <v>60.000000000000007</v>
       </c>
       <c r="T10">
         <v>6</v>
@@ -4276,11 +4307,11 @@
         <v>100000000000000</v>
       </c>
       <c r="W10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>545.20000000000005</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.4620000000000008E+16</v>
       </c>
       <c r="Y10">
@@ -4291,7 +4322,7 @@
         <v>6</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+113</v>
       </c>
       <c r="AC10">
@@ -4311,6 +4342,10 @@
       <c r="G11" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
       <c r="K11">
         <v>6</v>
       </c>
@@ -4318,27 +4353,27 @@
         <v>8</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="P11">
         <f>SUM(O$5:$O11)</f>
-        <v>3.5</v>
+        <v>1.75</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.65</v>
       </c>
       <c r="R11">
-        <f t="shared" si="7"/>
-        <v>30.000000000000004</v>
+        <f t="shared" si="8"/>
+        <v>60.000000000000007</v>
       </c>
       <c r="T11">
         <v>7</v>
@@ -4350,11 +4385,11 @@
         <v>140000000000000</v>
       </c>
       <c r="W11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>637.6</v>
       </c>
       <c r="X11" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8.9404E+16</v>
       </c>
       <c r="Y11">
@@ -4365,7 +4400,7 @@
         <v>7</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+114</v>
       </c>
       <c r="AC11">
@@ -4385,6 +4420,10 @@
       <c r="G12" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>8000</v>
+      </c>
       <c r="K12">
         <v>7</v>
       </c>
@@ -4392,27 +4431,27 @@
         <v>8</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="P12">
         <f>SUM(O$5:$O12)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.8</v>
       </c>
       <c r="R12">
-        <f t="shared" si="7"/>
-        <v>30.000000000000004</v>
+        <f t="shared" si="8"/>
+        <v>60.000000000000007</v>
       </c>
       <c r="T12">
         <v>8</v>
@@ -4424,11 +4463,11 @@
         <v>180000000000000</v>
       </c>
       <c r="W12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>759.2</v>
       </c>
       <c r="X12" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3683600000000002E+17</v>
       </c>
       <c r="Y12">
@@ -4439,7 +4478,7 @@
         <v>8</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+115</v>
       </c>
       <c r="AC12">
@@ -4459,6 +4498,10 @@
       <c r="G13" s="5" t="s">
         <v>27</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
       <c r="K13">
         <v>8</v>
       </c>
@@ -4466,27 +4509,27 @@
         <v>8</v>
       </c>
       <c r="M13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="P13">
         <f>SUM(O$5:$O13)</f>
-        <v>4.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="R13">
-        <f t="shared" si="7"/>
-        <v>39.999999999999993</v>
+        <f t="shared" si="8"/>
+        <v>79.999999999999986</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -4498,11 +4541,11 @@
         <v>220000000000000</v>
       </c>
       <c r="W13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>914</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.013E+17</v>
       </c>
       <c r="Y13">
@@ -4513,7 +4556,7 @@
         <v>9</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+116</v>
       </c>
       <c r="AC13">
@@ -4533,6 +4576,10 @@
       <c r="G14" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
       <c r="K14">
         <v>9</v>
       </c>
@@ -4540,27 +4587,27 @@
         <v>8</v>
       </c>
       <c r="M14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
+        <f t="shared" si="3"/>
+        <v>0.25</v>
       </c>
       <c r="P14">
         <f>SUM(O$5:$O14)</f>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2</v>
       </c>
       <c r="R14">
-        <f t="shared" si="7"/>
-        <v>39.999999999999993</v>
+        <f t="shared" si="8"/>
+        <v>79.999999999999986</v>
       </c>
       <c r="T14">
         <v>10</v>
@@ -4572,11 +4619,11 @@
         <v>260000000000000</v>
       </c>
       <c r="W14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1106</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.8782E+17</v>
       </c>
       <c r="Y14">
@@ -4587,7 +4634,7 @@
         <v>10</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+117</v>
       </c>
       <c r="AC14">
@@ -4607,6 +4654,10 @@
       <c r="G15" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>11000</v>
+      </c>
       <c r="K15">
         <v>10</v>
       </c>
@@ -4614,7 +4665,7 @@
         <v>8</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="N15">
@@ -4622,27 +4673,27 @@
         <v>2</v>
       </c>
       <c r="O15">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P15">
         <f>SUM(O$5:$O15)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7</v>
       </c>
       <c r="R15">
-        <f t="shared" si="7"/>
-        <v>50</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="V15" s="3"/>
       <c r="AA15">
         <v>11</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+118</v>
       </c>
       <c r="AC15">
@@ -4662,6 +4713,10 @@
       <c r="G16" s="5" t="s">
         <v>30</v>
       </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
       <c r="K16">
         <v>11</v>
       </c>
@@ -4669,34 +4724,34 @@
         <v>8</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="N16">
-        <f t="shared" ref="N16:N79" si="8">N6+1</f>
+        <f t="shared" ref="N16:N79" si="9">N6+1</f>
         <v>2</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P16">
         <f>SUM(O$5:$O16)</f>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="R16">
-        <f t="shared" si="7"/>
-        <v>50.000000000000021</v>
+        <f t="shared" si="8"/>
+        <v>100.00000000000004</v>
       </c>
       <c r="AA16">
         <v>12</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+119</v>
       </c>
       <c r="AC16">
@@ -4716,6 +4771,10 @@
       <c r="G17" s="5" t="s">
         <v>31</v>
       </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
       <c r="K17">
         <v>12</v>
       </c>
@@ -4723,28 +4782,28 @@
         <v>8</v>
       </c>
       <c r="M17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="N17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O17">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P17">
         <f>SUM(O$5:$O17)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.7</v>
       </c>
       <c r="R17">
-        <f t="shared" si="7"/>
-        <v>50</v>
+        <f t="shared" si="8"/>
+        <v>100</v>
       </c>
       <c r="X17" s="2">
         <v>5E+16</v>
@@ -4753,7 +4812,7 @@
         <v>13</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+120</v>
       </c>
       <c r="AC17">
@@ -4773,6 +4832,10 @@
       <c r="G18" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
       <c r="K18">
         <v>13</v>
       </c>
@@ -4780,34 +4843,34 @@
         <v>8</v>
       </c>
       <c r="M18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="N18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P18">
         <f>SUM(O$5:$O18)</f>
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.3</v>
       </c>
       <c r="R18">
-        <f t="shared" si="7"/>
-        <v>59.999999999999964</v>
+        <f t="shared" si="8"/>
+        <v>119.99999999999993</v>
       </c>
       <c r="AA18">
         <v>14</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+121</v>
       </c>
       <c r="AC18">
@@ -4827,6 +4890,10 @@
       <c r="G19" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>15000</v>
+      </c>
       <c r="K19">
         <v>14</v>
       </c>
@@ -4834,34 +4901,34 @@
         <v>8</v>
       </c>
       <c r="M19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
       <c r="N19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O19">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P19">
         <f>SUM(O$5:$O19)</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.9</v>
       </c>
       <c r="R19">
-        <f t="shared" si="7"/>
-        <v>60.000000000000007</v>
+        <f t="shared" si="8"/>
+        <v>120.00000000000001</v>
       </c>
       <c r="AA19">
         <v>15</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+122</v>
       </c>
       <c r="AC19">
@@ -4881,6 +4948,10 @@
       <c r="G20" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>16000</v>
+      </c>
       <c r="K20">
         <v>15</v>
       </c>
@@ -4888,35 +4959,35 @@
         <v>8</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="N20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O20">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P20">
         <f>SUM(O$5:$O20)</f>
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.5999999999999996</v>
       </c>
       <c r="R20">
-        <f t="shared" si="7"/>
-        <v>69.999999999999972</v>
+        <f t="shared" si="8"/>
+        <v>139.99999999999994</v>
       </c>
       <c r="X20" s="3"/>
       <c r="AA20">
         <v>16</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+123</v>
       </c>
       <c r="AC20">
@@ -4936,6 +5007,10 @@
       <c r="G21" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>17000</v>
+      </c>
       <c r="K21">
         <v>16</v>
       </c>
@@ -4943,34 +5018,34 @@
         <v>8</v>
       </c>
       <c r="M21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="N21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O21">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P21">
         <f>SUM(O$5:$O21)</f>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.3</v>
       </c>
       <c r="R21">
-        <f t="shared" si="7"/>
-        <v>70.000000000000014</v>
+        <f t="shared" si="8"/>
+        <v>140.00000000000003</v>
       </c>
       <c r="AA21">
         <v>17</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+124</v>
       </c>
       <c r="AC21">
@@ -4990,6 +5065,10 @@
       <c r="G22" s="5" t="s">
         <v>36</v>
       </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>18000</v>
+      </c>
       <c r="K22">
         <v>17</v>
       </c>
@@ -4997,34 +5076,34 @@
         <v>8</v>
       </c>
       <c r="M22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="N22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O22">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P22">
         <f>SUM(O$5:$O22)</f>
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="R22">
-        <f t="shared" si="7"/>
-        <v>70.000000000000014</v>
+        <f t="shared" si="8"/>
+        <v>140.00000000000003</v>
       </c>
       <c r="AA22">
         <v>18</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+125</v>
       </c>
       <c r="AC22">
@@ -5044,6 +5123,10 @@
       <c r="G23" s="5" t="s">
         <v>37</v>
       </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>19000</v>
+      </c>
       <c r="K23">
         <v>18</v>
       </c>
@@ -5051,34 +5134,34 @@
         <v>8</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="N23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O23">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P23">
         <f>SUM(O$5:$O23)</f>
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.8</v>
       </c>
       <c r="R23">
-        <f t="shared" si="7"/>
-        <v>79.999999999999986</v>
+        <f t="shared" si="8"/>
+        <v>159.99999999999997</v>
       </c>
       <c r="AA23">
         <v>19</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+126</v>
       </c>
       <c r="AC23">
@@ -5098,6 +5181,10 @@
       <c r="G24" s="5" t="s">
         <v>38</v>
       </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
       <c r="K24">
         <v>19</v>
       </c>
@@ -5105,34 +5192,34 @@
         <v>8</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
       <c r="N24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="O24">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="P24">
         <f>SUM(O$5:$O24)</f>
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.6</v>
       </c>
       <c r="R24">
-        <f t="shared" si="7"/>
-        <v>79.999999999999986</v>
+        <f t="shared" si="8"/>
+        <v>159.99999999999997</v>
       </c>
       <c r="AA24">
         <v>20</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+127</v>
       </c>
       <c r="AC24">
@@ -5147,34 +5234,34 @@
         <v>9</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
       <c r="N25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O25">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P25">
         <f>SUM(O$5:$O25)</f>
-        <v>16.5</v>
+        <v>8.25</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8.9499999999999993</v>
       </c>
       <c r="R25">
-        <f t="shared" si="7"/>
-        <v>89.999999999999986</v>
+        <f t="shared" si="8"/>
+        <v>179.99999999999997</v>
       </c>
       <c r="AA25">
         <v>21</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="AC25">
@@ -5189,34 +5276,34 @@
         <v>9</v>
       </c>
       <c r="M26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
       <c r="N26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O26">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P26">
         <f>SUM(O$5:$O26)</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.3</v>
       </c>
       <c r="R26">
-        <f t="shared" si="7"/>
-        <v>90.000000000000099</v>
+        <f t="shared" si="8"/>
+        <v>180.0000000000002</v>
       </c>
       <c r="AA26">
         <v>22</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1E+129</v>
       </c>
       <c r="AC26">
@@ -5231,34 +5318,34 @@
         <v>9</v>
       </c>
       <c r="M27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
       <c r="N27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O27">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P27">
         <f>SUM(O$5:$O27)</f>
-        <v>19.5</v>
+        <v>9.75</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>11.65</v>
       </c>
       <c r="R27">
-        <f t="shared" si="7"/>
-        <v>89.999999999999986</v>
+        <f t="shared" si="8"/>
+        <v>179.99999999999997</v>
       </c>
       <c r="AA27">
         <v>23</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="AC27">
@@ -5273,34 +5360,34 @@
         <v>9</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
       <c r="N28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O28">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P28">
         <f>SUM(O$5:$O28)</f>
-        <v>21</v>
+        <v>10.5</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13.15</v>
       </c>
       <c r="R28">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="AA28">
         <v>24</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="AC28">
@@ -5315,34 +5402,34 @@
         <v>9</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7500</v>
       </c>
       <c r="N29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O29">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P29">
         <f>SUM(O$5:$O29)</f>
-        <v>22.5</v>
+        <v>11.25</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14.65</v>
       </c>
       <c r="R29">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>200</v>
       </c>
       <c r="AA29">
         <v>25</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+132</v>
       </c>
       <c r="AC29">
@@ -5357,34 +5444,34 @@
         <v>9</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="N30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O30">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P30">
         <f>SUM(O$5:$O30)</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>16.3</v>
       </c>
       <c r="R30">
-        <f t="shared" si="7"/>
-        <v>110.00000000000001</v>
+        <f t="shared" si="8"/>
+        <v>220.00000000000003</v>
       </c>
       <c r="AA30">
         <v>26</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+133</v>
       </c>
       <c r="AC30">
@@ -5399,34 +5486,34 @@
         <v>9</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="N31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P31">
         <f>SUM(O$5:$O31)</f>
-        <v>25.5</v>
+        <v>12.75</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17.95</v>
       </c>
       <c r="R31">
-        <f t="shared" si="7"/>
-        <v>109.9999999999999</v>
+        <f t="shared" si="8"/>
+        <v>219.9999999999998</v>
       </c>
       <c r="AA31">
         <v>27</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+134</v>
       </c>
       <c r="AC31">
@@ -5441,34 +5528,34 @@
         <v>9</v>
       </c>
       <c r="M32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="N32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P32">
         <f>SUM(O$5:$O32)</f>
-        <v>27</v>
+        <v>13.5</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>19.600000000000001</v>
       </c>
       <c r="R32">
-        <f t="shared" si="7"/>
-        <v>110.00000000000016</v>
+        <f t="shared" si="8"/>
+        <v>220.00000000000031</v>
       </c>
       <c r="AA32">
         <v>28</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+135</v>
       </c>
       <c r="AC32">
@@ -5483,34 +5570,34 @@
         <v>9</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="N33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P33">
         <f>SUM(O$5:$O33)</f>
-        <v>28.5</v>
+        <v>14.25</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>21.4</v>
       </c>
       <c r="R33">
-        <f t="shared" si="7"/>
-        <v>119.99999999999982</v>
+        <f t="shared" si="8"/>
+        <v>239.99999999999963</v>
       </c>
       <c r="AA33">
         <v>29</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+136</v>
       </c>
       <c r="AC33">
@@ -5525,34 +5612,34 @@
         <v>9</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
       <c r="N34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="O34">
-        <f t="shared" si="2"/>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>0.75</v>
       </c>
       <c r="P34">
         <f>SUM(O$5:$O34)</f>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>23.2</v>
       </c>
       <c r="R34">
-        <f t="shared" si="7"/>
-        <v>120.00000000000004</v>
+        <f t="shared" si="8"/>
+        <v>240.00000000000009</v>
       </c>
       <c r="AA34">
         <v>30</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+137</v>
       </c>
       <c r="AC34">
@@ -5567,34 +5654,34 @@
         <v>9</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="N35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O35">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P35">
         <f>SUM(O$5:$O35)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>25.8</v>
       </c>
       <c r="R35">
-        <f t="shared" si="7"/>
-        <v>130.00000000000006</v>
+        <f t="shared" si="8"/>
+        <v>260.00000000000011</v>
       </c>
       <c r="AA35">
         <v>31</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+138</v>
       </c>
       <c r="AC35">
@@ -5609,34 +5696,34 @@
         <v>9</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="N36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O36">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P36">
         <f>SUM(O$5:$O36)</f>
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28.4</v>
       </c>
       <c r="R36">
-        <f t="shared" si="7"/>
-        <v>129.99999999999989</v>
+        <f t="shared" si="8"/>
+        <v>259.99999999999977</v>
       </c>
       <c r="AA36">
         <v>32</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+139</v>
       </c>
       <c r="AC36">
@@ -5651,34 +5738,34 @@
         <v>9</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="N37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O37">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P37">
         <f>SUM(O$5:$O37)</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>31</v>
       </c>
       <c r="R37">
-        <f t="shared" si="7"/>
-        <v>130.00000000000006</v>
+        <f t="shared" si="8"/>
+        <v>260.00000000000011</v>
       </c>
       <c r="AA37">
         <v>33</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000003E+140</v>
       </c>
       <c r="AC37">
@@ -5693,34 +5780,34 @@
         <v>9</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="N38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P38">
         <f>SUM(O$5:$O38)</f>
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33.799999999999997</v>
       </c>
       <c r="R38">
-        <f t="shared" si="7"/>
-        <v>139.99999999999986</v>
+        <f t="shared" si="8"/>
+        <v>279.99999999999972</v>
       </c>
       <c r="AA38">
         <v>34</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+141</v>
       </c>
       <c r="AC38">
@@ -5735,34 +5822,34 @@
         <v>9</v>
       </c>
       <c r="M39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14000</v>
       </c>
       <c r="N39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O39">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P39">
         <f>SUM(O$5:$O39)</f>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>36.6</v>
       </c>
       <c r="R39">
-        <f t="shared" si="7"/>
-        <v>140.00000000000023</v>
+        <f t="shared" si="8"/>
+        <v>280.00000000000045</v>
       </c>
       <c r="AA39">
         <v>35</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+142</v>
       </c>
       <c r="AC39">
@@ -5777,34 +5864,34 @@
         <v>9</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="N40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P40">
         <f>SUM(O$5:$O40)</f>
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>39.6</v>
       </c>
       <c r="R40">
-        <f t="shared" si="7"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
       <c r="AA40">
         <v>36</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+143</v>
       </c>
       <c r="AC40">
@@ -5819,34 +5906,34 @@
         <v>9</v>
       </c>
       <c r="M41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="N41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O41">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P41">
         <f>SUM(O$5:$O41)</f>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>42.6</v>
       </c>
       <c r="R41">
-        <f t="shared" si="7"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
       <c r="AA41">
         <v>37</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+144</v>
       </c>
       <c r="AC41">
@@ -5861,34 +5948,34 @@
         <v>9</v>
       </c>
       <c r="M42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="N42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O42">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P42">
         <f>SUM(O$5:$O42)</f>
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45.6</v>
       </c>
       <c r="R42">
-        <f t="shared" si="7"/>
-        <v>150</v>
+        <f t="shared" si="8"/>
+        <v>300</v>
       </c>
       <c r="AA42">
         <v>38</v>
       </c>
       <c r="AB42" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000003E+145</v>
       </c>
       <c r="AC42">
@@ -5903,34 +5990,34 @@
         <v>9</v>
       </c>
       <c r="M43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="N43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O43">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P43">
         <f>SUM(O$5:$O43)</f>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.8</v>
       </c>
       <c r="R43">
-        <f t="shared" si="7"/>
-        <v>159.99999999999977</v>
+        <f t="shared" si="8"/>
+        <v>319.99999999999955</v>
       </c>
       <c r="AA43">
         <v>39</v>
       </c>
       <c r="AB43" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+146</v>
       </c>
       <c r="AC43">
@@ -5945,34 +6032,34 @@
         <v>9</v>
       </c>
       <c r="M44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16000</v>
       </c>
       <c r="N44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="O44">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="P44">
         <f>SUM(O$5:$O44)</f>
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52</v>
       </c>
       <c r="R44">
-        <f t="shared" si="7"/>
-        <v>160.00000000000014</v>
+        <f t="shared" si="8"/>
+        <v>320.00000000000028</v>
       </c>
       <c r="AA44">
         <v>40</v>
       </c>
       <c r="AB44" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+147</v>
       </c>
       <c r="AC44">
@@ -5987,34 +6074,34 @@
         <v>10</v>
       </c>
       <c r="M45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22500</v>
       </c>
       <c r="N45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O45">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P45">
         <f>SUM(O$5:$O45)</f>
-        <v>52.5</v>
+        <v>26.25</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56.25</v>
       </c>
       <c r="R45">
-        <f t="shared" si="7"/>
-        <v>170</v>
+        <f t="shared" si="8"/>
+        <v>340</v>
       </c>
       <c r="AA45">
         <v>41</v>
       </c>
       <c r="AB45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="AC45">
@@ -6029,34 +6116,34 @@
         <v>10</v>
       </c>
       <c r="M46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22500</v>
       </c>
       <c r="N46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O46">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P46">
         <f>SUM(O$5:$O46)</f>
-        <v>55</v>
+        <v>27.5</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60.5</v>
       </c>
       <c r="R46">
-        <f t="shared" si="7"/>
-        <v>170</v>
+        <f t="shared" si="8"/>
+        <v>340</v>
       </c>
       <c r="AA46">
         <v>42</v>
       </c>
       <c r="AB46" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+149</v>
       </c>
       <c r="AC46">
@@ -6071,34 +6158,34 @@
         <v>10</v>
       </c>
       <c r="M47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22500</v>
       </c>
       <c r="N47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O47">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P47">
         <f>SUM(O$5:$O47)</f>
-        <v>57.5</v>
+        <v>28.75</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64.75</v>
       </c>
       <c r="R47">
-        <f t="shared" si="7"/>
-        <v>170</v>
+        <f t="shared" si="8"/>
+        <v>340</v>
       </c>
       <c r="AA47">
         <v>43</v>
       </c>
       <c r="AB47" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+150</v>
       </c>
       <c r="AC47">
@@ -6113,34 +6200,34 @@
         <v>10</v>
       </c>
       <c r="M48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22500</v>
       </c>
       <c r="N48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O48">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P48">
         <f>SUM(O$5:$O48)</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>69.25</v>
       </c>
       <c r="R48">
-        <f t="shared" si="7"/>
-        <v>180</v>
+        <f t="shared" si="8"/>
+        <v>360</v>
       </c>
       <c r="AA48">
         <v>44</v>
       </c>
       <c r="AB48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+151</v>
       </c>
       <c r="AC48">
@@ -6155,34 +6242,34 @@
         <v>10</v>
       </c>
       <c r="M49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22500</v>
       </c>
       <c r="N49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O49">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P49">
         <f>SUM(O$5:$O49)</f>
-        <v>62.5</v>
+        <v>31.25</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>73.75</v>
       </c>
       <c r="R49">
-        <f t="shared" si="7"/>
-        <v>180</v>
+        <f t="shared" si="8"/>
+        <v>360</v>
       </c>
       <c r="AA49">
         <v>45</v>
       </c>
       <c r="AB49" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+152</v>
       </c>
       <c r="AC49">
@@ -6197,34 +6284,34 @@
         <v>10</v>
       </c>
       <c r="M50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="N50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O50">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P50">
         <f>SUM(O$5:$O50)</f>
-        <v>65</v>
+        <v>32.5</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78.5</v>
       </c>
       <c r="R50">
-        <f t="shared" si="7"/>
-        <v>190</v>
+        <f t="shared" si="8"/>
+        <v>380</v>
       </c>
       <c r="AA50">
         <v>46</v>
       </c>
       <c r="AB50" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+153</v>
       </c>
       <c r="AC50">
@@ -6239,34 +6326,34 @@
         <v>10</v>
       </c>
       <c r="M51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="N51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O51">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P51">
         <f>SUM(O$5:$O51)</f>
-        <v>67.5</v>
+        <v>33.75</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83.25</v>
       </c>
       <c r="R51">
-        <f t="shared" si="7"/>
-        <v>190</v>
+        <f t="shared" si="8"/>
+        <v>380</v>
       </c>
       <c r="AA51">
         <v>47</v>
       </c>
       <c r="AB51" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+154</v>
       </c>
       <c r="AC51">
@@ -6281,34 +6368,34 @@
         <v>10</v>
       </c>
       <c r="M52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="N52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O52">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P52">
         <f>SUM(O$5:$O52)</f>
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="R52">
-        <f t="shared" si="7"/>
-        <v>190</v>
+        <f t="shared" si="8"/>
+        <v>380</v>
       </c>
       <c r="AA52">
         <v>48</v>
       </c>
       <c r="AB52" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+155</v>
       </c>
       <c r="AC52">
@@ -6323,34 +6410,34 @@
         <v>10</v>
       </c>
       <c r="M53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="N53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O53">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P53">
         <f>SUM(O$5:$O53)</f>
-        <v>72.5</v>
+        <v>36.25</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>93</v>
       </c>
       <c r="R53">
-        <f t="shared" si="7"/>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>400</v>
       </c>
       <c r="AA53">
         <v>49</v>
       </c>
       <c r="AB53" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+156</v>
       </c>
       <c r="AC53">
@@ -6365,34 +6452,34 @@
         <v>10</v>
       </c>
       <c r="M54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25000</v>
       </c>
       <c r="N54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="O54">
-        <f t="shared" si="2"/>
-        <v>2.5</v>
+        <f t="shared" si="3"/>
+        <v>1.25</v>
       </c>
       <c r="P54">
         <f>SUM(O$5:$O54)</f>
-        <v>75</v>
+        <v>37.5</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="R54">
-        <f t="shared" si="7"/>
-        <v>200</v>
+        <f t="shared" si="8"/>
+        <v>400</v>
       </c>
       <c r="AA54">
         <v>50</v>
       </c>
       <c r="AB54" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+157</v>
       </c>
       <c r="AC54">
@@ -6407,34 +6494,34 @@
         <v>10</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33000</v>
       </c>
       <c r="N55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O55">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P55">
         <f>SUM(O$5:$O55)</f>
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>104.3</v>
       </c>
       <c r="R55">
-        <f t="shared" si="7"/>
-        <v>209.99999999999991</v>
+        <f t="shared" si="8"/>
+        <v>419.99999999999983</v>
       </c>
       <c r="AA55">
         <v>51</v>
       </c>
       <c r="AB55" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+158</v>
       </c>
       <c r="AC55">
@@ -6449,34 +6536,34 @@
         <v>10</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33000</v>
       </c>
       <c r="N56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O56">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P56">
         <f>SUM(O$5:$O56)</f>
-        <v>81</v>
+        <v>40.5</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>110.6</v>
       </c>
       <c r="R56">
-        <f t="shared" si="7"/>
-        <v>209.99999999999991</v>
+        <f t="shared" si="8"/>
+        <v>419.99999999999983</v>
       </c>
       <c r="AA56">
         <v>52</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+159</v>
       </c>
       <c r="AC56">
@@ -6491,34 +6578,34 @@
         <v>10</v>
       </c>
       <c r="M57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33000</v>
       </c>
       <c r="N57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O57">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P57">
         <f>SUM(O$5:$O57)</f>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116.9</v>
       </c>
       <c r="R57">
-        <f t="shared" si="7"/>
-        <v>210.00000000000037</v>
+        <f t="shared" si="8"/>
+        <v>420.00000000000074</v>
       </c>
       <c r="AA57">
         <v>53</v>
       </c>
       <c r="AB57" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+160</v>
       </c>
       <c r="AC57">
@@ -6533,34 +6620,34 @@
         <v>10</v>
       </c>
       <c r="M58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33000</v>
       </c>
       <c r="N58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O58">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P58">
         <f>SUM(O$5:$O58)</f>
-        <v>87</v>
+        <v>43.5</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123.5</v>
       </c>
       <c r="R58">
-        <f t="shared" si="7"/>
-        <v>219.9999999999998</v>
+        <f t="shared" si="8"/>
+        <v>439.9999999999996</v>
       </c>
       <c r="AA58">
         <v>54</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000002E+161</v>
       </c>
       <c r="AC58">
@@ -6575,34 +6662,34 @@
         <v>10</v>
       </c>
       <c r="M59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33000</v>
       </c>
       <c r="N59">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O59">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P59">
         <f>SUM(O$5:$O59)</f>
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>130.1</v>
       </c>
       <c r="R59">
-        <f t="shared" si="7"/>
-        <v>219.9999999999998</v>
+        <f t="shared" si="8"/>
+        <v>439.9999999999996</v>
       </c>
       <c r="AA59">
         <v>55</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="AC59">
@@ -6617,34 +6704,34 @@
         <v>10</v>
       </c>
       <c r="M60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="N60">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O60">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P60">
         <f>SUM(O$5:$O60)</f>
-        <v>93</v>
+        <v>46.5</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>137</v>
       </c>
       <c r="R60">
-        <f t="shared" si="7"/>
-        <v>230.0000000000002</v>
+        <f t="shared" si="8"/>
+        <v>460.0000000000004</v>
       </c>
       <c r="AA60">
         <v>56</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="AC60">
@@ -6659,34 +6746,34 @@
         <v>10</v>
       </c>
       <c r="M61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="N61">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O61">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P61">
         <f>SUM(O$5:$O61)</f>
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>143.9</v>
       </c>
       <c r="R61">
-        <f t="shared" si="7"/>
-        <v>230.0000000000002</v>
+        <f t="shared" si="8"/>
+        <v>460.0000000000004</v>
       </c>
       <c r="AA61">
         <v>57</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+164</v>
       </c>
       <c r="AC61">
@@ -6701,34 +6788,34 @@
         <v>10</v>
       </c>
       <c r="M62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="N62">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O62">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P62">
         <f>SUM(O$5:$O62)</f>
-        <v>99</v>
+        <v>49.5</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>150.80000000000001</v>
       </c>
       <c r="R62">
-        <f t="shared" si="7"/>
-        <v>230.0000000000002</v>
+        <f t="shared" si="8"/>
+        <v>460.0000000000004</v>
       </c>
       <c r="AA62">
         <v>58</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="AC62">
@@ -6743,34 +6830,34 @@
         <v>10</v>
       </c>
       <c r="M63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="N63">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O63">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P63">
         <f>SUM(O$5:$O63)</f>
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>158</v>
       </c>
       <c r="R63">
-        <f t="shared" si="7"/>
-        <v>239.99999999999963</v>
+        <f t="shared" si="8"/>
+        <v>479.99999999999926</v>
       </c>
       <c r="AA63">
         <v>59</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0000000000000001E+166</v>
       </c>
       <c r="AC63">
@@ -6785,34 +6872,34 @@
         <v>10</v>
       </c>
       <c r="M64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36000</v>
       </c>
       <c r="N64">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="O64">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="P64">
         <f>SUM(O$5:$O64)</f>
-        <v>105</v>
+        <v>52.5</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>165.2</v>
       </c>
       <c r="R64">
-        <f t="shared" si="7"/>
-        <v>239.99999999999963</v>
+        <f t="shared" si="8"/>
+        <v>479.99999999999926</v>
       </c>
       <c r="AA64">
         <v>60</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1E+167</v>
       </c>
       <c r="AC64">
@@ -6827,34 +6914,34 @@
         <v>11</v>
       </c>
       <c r="M65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="N65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O65">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
+        <f t="shared" si="3"/>
+        <v>1.75</v>
       </c>
       <c r="P65">
         <f>SUM(O$5:$O65)</f>
-        <v>108.5</v>
+        <v>54.25</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>173.95</v>
       </c>
       <c r="R65">
-        <f t="shared" si="7"/>
-        <v>250</v>
+        <f t="shared" si="8"/>
+        <v>500</v>
       </c>
       <c r="AA65">
         <v>61</v>
       </c>
       <c r="AB65" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="AC65">
@@ -6869,34 +6956,34 @@
         <v>11</v>
       </c>
       <c r="M66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="N66">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O66">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
+        <f t="shared" si="3"/>
+        <v>1.75</v>
       </c>
       <c r="P66">
         <f>SUM(O$5:$O66)</f>
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>182.7</v>
       </c>
       <c r="R66">
-        <f t="shared" si="7"/>
-        <v>250</v>
+        <f t="shared" si="8"/>
+        <v>500</v>
       </c>
       <c r="AA66">
         <v>62</v>
       </c>
       <c r="AB66" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="AC66">
@@ -6911,34 +6998,34 @@
         <v>11</v>
       </c>
       <c r="M67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="N67">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O67">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
+        <f t="shared" si="3"/>
+        <v>1.75</v>
       </c>
       <c r="P67">
         <f>SUM(O$5:$O67)</f>
-        <v>115.5</v>
+        <v>57.75</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>191.45</v>
       </c>
       <c r="R67">
-        <f t="shared" si="7"/>
-        <v>250</v>
+        <f t="shared" si="8"/>
+        <v>500</v>
       </c>
       <c r="AA67">
         <v>63</v>
       </c>
       <c r="AB67" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="AC67">
@@ -6953,34 +7040,34 @@
         <v>11</v>
       </c>
       <c r="M68" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="N68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O68">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
+        <f t="shared" si="3"/>
+        <v>1.75</v>
       </c>
       <c r="P68">
         <f>SUM(O$5:$O68)</f>
-        <v>119</v>
+        <v>59.5</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>200.55</v>
       </c>
       <c r="R68">
-        <f t="shared" si="7"/>
-        <v>260.00000000000063</v>
+        <f t="shared" si="8"/>
+        <v>520.00000000000125</v>
       </c>
       <c r="AA68">
         <v>64</v>
       </c>
       <c r="AB68" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="AC68">
@@ -6995,34 +7082,34 @@
         <v>11</v>
       </c>
       <c r="M69" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45500</v>
       </c>
       <c r="N69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O69">
-        <f t="shared" si="2"/>
-        <v>3.5</v>
+        <f t="shared" si="3"/>
+        <v>1.75</v>
       </c>
       <c r="P69">
         <f>SUM(O$5:$O69)</f>
-        <v>122.5</v>
+        <v>61.25</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>209.65</v>
       </c>
       <c r="R69">
-        <f t="shared" si="7"/>
-        <v>259.99999999999983</v>
+        <f t="shared" si="8"/>
+        <v>519.99999999999966</v>
       </c>
       <c r="AA69">
         <v>65</v>
       </c>
       <c r="AB69" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9.9999999999999991E+171</v>
       </c>
       <c r="AC69">
@@ -7037,34 +7124,34 @@
         <v>11</v>
       </c>
       <c r="M70" s="1">
-        <f t="shared" ref="M70:M104" si="9">VLOOKUP(QUOTIENT(K70,5),D:G,4,FALSE)*N70</f>
+        <f t="shared" ref="M70:M104" si="10">VLOOKUP(QUOTIENT(K70,5),D:G,4,FALSE)*N70</f>
         <v>49000</v>
       </c>
       <c r="N70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O70">
-        <f t="shared" ref="O70:O104" si="10">M70/(VLOOKUP(QUOTIENT(K70,5),D:G,4,FALSE)*2)</f>
-        <v>3.5</v>
+        <f t="shared" ref="O70:O104" si="11">M70/(VLOOKUP(QUOTIENT(K70,5),D:H,5,FALSE)*2)</f>
+        <v>1.75</v>
       </c>
       <c r="P70">
         <f>SUM(O$5:$O70)</f>
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>219.1</v>
       </c>
       <c r="R70">
-        <f t="shared" si="7"/>
-        <v>269.99999999999966</v>
+        <f t="shared" si="8"/>
+        <v>539.99999999999932</v>
       </c>
       <c r="AA70">
         <v>66</v>
       </c>
       <c r="AB70" s="2">
-        <f t="shared" ref="AB70:AB84" si="11">AB69*(10)</f>
+        <f t="shared" ref="AB70:AB84" si="12">AB69*(10)</f>
         <v>9.9999999999999988E+172</v>
       </c>
       <c r="AC70">
@@ -7079,34 +7166,34 @@
         <v>11</v>
       </c>
       <c r="M71" s="1">
+        <f t="shared" si="10"/>
+        <v>49000</v>
+      </c>
+      <c r="N71">
         <f t="shared" si="9"/>
-        <v>49000</v>
-      </c>
-      <c r="N71">
-        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="O71">
-        <f t="shared" si="10"/>
-        <v>3.5</v>
+        <f t="shared" si="11"/>
+        <v>1.75</v>
       </c>
       <c r="P71">
         <f>SUM(O$5:$O71)</f>
-        <v>129.5</v>
+        <v>64.75</v>
       </c>
       <c r="Q71">
-        <f t="shared" ref="Q71:Q104" si="12">ROUNDUP(Q70+0.05*N71*(QUOTIENT(K71,2.5)+1),2)</f>
+        <f t="shared" ref="Q71:Q104" si="13">ROUNDUP(Q70+0.05*N71*(QUOTIENT(K71,2.5)+1),2)</f>
         <v>228.55</v>
       </c>
       <c r="R71">
-        <f t="shared" ref="R71:R104" si="13">(Q71-Q70)*100/O71</f>
-        <v>270.00000000000051</v>
+        <f t="shared" ref="R71:R104" si="14">(Q71-Q70)*100/O71</f>
+        <v>540.00000000000102</v>
       </c>
       <c r="AA71">
         <v>67</v>
       </c>
       <c r="AB71" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999985E+173</v>
       </c>
       <c r="AC71">
@@ -7121,34 +7208,34 @@
         <v>11</v>
       </c>
       <c r="M72" s="1">
+        <f t="shared" si="10"/>
+        <v>49000</v>
+      </c>
+      <c r="N72">
         <f t="shared" si="9"/>
-        <v>49000</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="O72">
-        <f t="shared" si="10"/>
-        <v>3.5</v>
+        <f t="shared" si="11"/>
+        <v>1.75</v>
       </c>
       <c r="P72">
         <f>SUM(O$5:$O72)</f>
-        <v>133</v>
+        <v>66.5</v>
       </c>
       <c r="Q72">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>238</v>
       </c>
       <c r="R72">
-        <f t="shared" si="13"/>
-        <v>269.99999999999966</v>
+        <f t="shared" si="14"/>
+        <v>539.99999999999932</v>
       </c>
       <c r="AA72">
         <v>68</v>
       </c>
       <c r="AB72" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999994E+174</v>
       </c>
       <c r="AC72">
@@ -7163,34 +7250,34 @@
         <v>11</v>
       </c>
       <c r="M73" s="1">
+        <f t="shared" si="10"/>
+        <v>49000</v>
+      </c>
+      <c r="N73">
         <f t="shared" si="9"/>
-        <v>49000</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="O73">
-        <f t="shared" si="10"/>
-        <v>3.5</v>
+        <f t="shared" si="11"/>
+        <v>1.75</v>
       </c>
       <c r="P73">
         <f>SUM(O$5:$O73)</f>
-        <v>136.5</v>
+        <v>68.25</v>
       </c>
       <c r="Q73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>247.8</v>
       </c>
       <c r="R73">
-        <f t="shared" si="13"/>
-        <v>280.00000000000034</v>
+        <f t="shared" si="14"/>
+        <v>560.00000000000068</v>
       </c>
       <c r="AA73">
         <v>69</v>
       </c>
       <c r="AB73" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1E+176</v>
       </c>
       <c r="AC73">
@@ -7205,34 +7292,34 @@
         <v>11</v>
       </c>
       <c r="M74" s="1">
+        <f t="shared" si="10"/>
+        <v>49000</v>
+      </c>
+      <c r="N74">
         <f t="shared" si="9"/>
-        <v>49000</v>
-      </c>
-      <c r="N74">
-        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="O74">
-        <f t="shared" si="10"/>
-        <v>3.5</v>
+        <f t="shared" si="11"/>
+        <v>1.75</v>
       </c>
       <c r="P74">
         <f>SUM(O$5:$O74)</f>
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="Q74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>257.60000000000002</v>
       </c>
       <c r="R74">
-        <f t="shared" si="13"/>
-        <v>280.00000000000034</v>
+        <f t="shared" si="14"/>
+        <v>560.00000000000068</v>
       </c>
       <c r="AA74">
         <v>70</v>
       </c>
       <c r="AB74" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1E+177</v>
       </c>
       <c r="AC74">
@@ -7247,34 +7334,34 @@
         <v>11</v>
       </c>
       <c r="M75" s="1">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+      <c r="N75">
         <f t="shared" si="9"/>
-        <v>60000</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="O75">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P75">
         <f>SUM(O$5:$O75)</f>
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="Q75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>269.2</v>
       </c>
       <c r="R75">
-        <f t="shared" si="13"/>
-        <v>289.99999999999915</v>
+        <f t="shared" si="14"/>
+        <v>579.99999999999829</v>
       </c>
       <c r="AA75">
         <v>71</v>
       </c>
       <c r="AB75" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+178</v>
       </c>
       <c r="AC75">
@@ -7289,34 +7376,34 @@
         <v>11</v>
       </c>
       <c r="M76" s="1">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+      <c r="N76">
         <f t="shared" si="9"/>
-        <v>60000</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="O76">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P76">
         <f>SUM(O$5:$O76)</f>
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="Q76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>280.8</v>
       </c>
       <c r="R76">
-        <f t="shared" si="13"/>
-        <v>290.00000000000057</v>
+        <f t="shared" si="14"/>
+        <v>580.00000000000114</v>
       </c>
       <c r="AA76">
         <v>72</v>
       </c>
       <c r="AB76" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+179</v>
       </c>
       <c r="AC76">
@@ -7331,34 +7418,34 @@
         <v>11</v>
       </c>
       <c r="M77" s="1">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+      <c r="N77">
         <f t="shared" si="9"/>
-        <v>60000</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="O77">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P77">
         <f>SUM(O$5:$O77)</f>
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="Q77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>292.39999999999998</v>
       </c>
       <c r="R77">
-        <f t="shared" si="13"/>
-        <v>289.99999999999915</v>
+        <f t="shared" si="14"/>
+        <v>579.99999999999829</v>
       </c>
       <c r="AA77">
         <v>73</v>
       </c>
       <c r="AB77" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+180</v>
       </c>
       <c r="AC77">
@@ -7373,34 +7460,34 @@
         <v>11</v>
       </c>
       <c r="M78" s="1">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+      <c r="N78">
         <f t="shared" si="9"/>
-        <v>60000</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="O78">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P78">
         <f>SUM(O$5:$O78)</f>
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="Q78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>304.39999999999998</v>
       </c>
       <c r="R78">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <f t="shared" si="14"/>
+        <v>600</v>
       </c>
       <c r="AA78">
         <v>74</v>
       </c>
       <c r="AB78" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+181</v>
       </c>
       <c r="AC78">
@@ -7415,34 +7502,34 @@
         <v>11</v>
       </c>
       <c r="M79" s="1">
+        <f t="shared" si="10"/>
+        <v>60000</v>
+      </c>
+      <c r="N79">
         <f t="shared" si="9"/>
-        <v>60000</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="8"/>
         <v>8</v>
       </c>
       <c r="O79">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P79">
         <f>SUM(O$5:$O79)</f>
-        <v>160</v>
+        <v>80</v>
       </c>
       <c r="Q79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>316.39999999999998</v>
       </c>
       <c r="R79">
-        <f t="shared" si="13"/>
-        <v>300</v>
+        <f t="shared" si="14"/>
+        <v>600</v>
       </c>
       <c r="AA79">
         <v>75</v>
       </c>
       <c r="AB79" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+182</v>
       </c>
       <c r="AC79">
@@ -7457,34 +7544,34 @@
         <v>11</v>
       </c>
       <c r="M80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64000</v>
       </c>
       <c r="N80">
-        <f t="shared" ref="N80:N104" si="14">N70+1</f>
+        <f t="shared" ref="N80:N104" si="15">N70+1</f>
         <v>8</v>
       </c>
       <c r="O80">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P80">
         <f>SUM(O$5:$O80)</f>
-        <v>164</v>
+        <v>82</v>
       </c>
       <c r="Q80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>328.8</v>
       </c>
       <c r="R80">
-        <f t="shared" si="13"/>
-        <v>310.00000000000085</v>
+        <f t="shared" si="14"/>
+        <v>620.00000000000171</v>
       </c>
       <c r="AA80">
         <v>76</v>
       </c>
       <c r="AB80" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0000000000000001E+183</v>
       </c>
       <c r="AC80">
@@ -7499,34 +7586,34 @@
         <v>11</v>
       </c>
       <c r="M81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64000</v>
       </c>
       <c r="N81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="O81">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P81">
         <f>SUM(O$5:$O81)</f>
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="Q81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>341.2</v>
       </c>
       <c r="R81">
-        <f t="shared" si="13"/>
-        <v>309.99999999999943</v>
+        <f t="shared" si="14"/>
+        <v>619.99999999999886</v>
       </c>
       <c r="AA81">
         <v>77</v>
       </c>
       <c r="AB81" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1E+184</v>
       </c>
       <c r="AC81">
@@ -7541,34 +7628,34 @@
         <v>11</v>
       </c>
       <c r="M82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64000</v>
       </c>
       <c r="N82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="O82">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P82">
         <f>SUM(O$5:$O82)</f>
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="Q82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>353.6</v>
       </c>
       <c r="R82">
-        <f t="shared" si="13"/>
-        <v>310.00000000000085</v>
+        <f t="shared" si="14"/>
+        <v>620.00000000000171</v>
       </c>
       <c r="AA82">
         <v>78</v>
       </c>
       <c r="AB82" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999998E+184</v>
       </c>
       <c r="AC82">
@@ -7583,34 +7670,34 @@
         <v>11</v>
       </c>
       <c r="M83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64000</v>
       </c>
       <c r="N83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="O83">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P83">
         <f>SUM(O$5:$O83)</f>
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="Q83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>366.4</v>
       </c>
       <c r="R83">
-        <f t="shared" si="13"/>
-        <v>319.99999999999886</v>
+        <f t="shared" si="14"/>
+        <v>639.99999999999773</v>
       </c>
       <c r="AA83">
         <v>79</v>
       </c>
       <c r="AB83" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999998E+185</v>
       </c>
       <c r="AC83">
@@ -7625,34 +7712,34 @@
         <v>11</v>
       </c>
       <c r="M84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64000</v>
       </c>
       <c r="N84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="O84">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <f t="shared" si="11"/>
+        <v>2</v>
       </c>
       <c r="P84">
         <f>SUM(O$5:$O84)</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="Q84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>379.2</v>
       </c>
       <c r="R84">
-        <f t="shared" si="13"/>
-        <v>320.00000000000028</v>
+        <f t="shared" si="14"/>
+        <v>640.00000000000057</v>
       </c>
       <c r="AA84">
         <v>80</v>
       </c>
       <c r="AB84" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.9999999999999991E+186</v>
       </c>
       <c r="AC84">
@@ -7667,28 +7754,28 @@
         <v>12</v>
       </c>
       <c r="M85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76500</v>
       </c>
       <c r="N85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O85">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P85">
         <f>SUM(O$5:$O85)</f>
-        <v>184.5</v>
+        <v>92.25</v>
       </c>
       <c r="Q85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>394.05</v>
       </c>
       <c r="R85">
-        <f t="shared" si="13"/>
-        <v>330.00000000000051</v>
+        <f t="shared" si="14"/>
+        <v>660.00000000000102</v>
       </c>
     </row>
     <row r="86" spans="11:29" x14ac:dyDescent="0.3">
@@ -7699,28 +7786,28 @@
         <v>12</v>
       </c>
       <c r="M86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76500</v>
       </c>
       <c r="N86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O86">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P86">
         <f>SUM(O$5:$O86)</f>
-        <v>189</v>
+        <v>94.5</v>
       </c>
       <c r="Q86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>408.9</v>
       </c>
       <c r="R86">
-        <f t="shared" si="13"/>
-        <v>329.99999999999926</v>
+        <f t="shared" si="14"/>
+        <v>659.99999999999852</v>
       </c>
     </row>
     <row r="87" spans="11:29" x14ac:dyDescent="0.3">
@@ -7731,28 +7818,28 @@
         <v>12</v>
       </c>
       <c r="M87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76500</v>
       </c>
       <c r="N87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O87">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P87">
         <f>SUM(O$5:$O87)</f>
-        <v>193.5</v>
+        <v>96.75</v>
       </c>
       <c r="Q87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>423.75</v>
       </c>
       <c r="R87">
-        <f t="shared" si="13"/>
-        <v>330.00000000000051</v>
+        <f t="shared" si="14"/>
+        <v>660.00000000000102</v>
       </c>
     </row>
     <row r="88" spans="11:29" x14ac:dyDescent="0.3">
@@ -7763,28 +7850,28 @@
         <v>12</v>
       </c>
       <c r="M88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76500</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O88">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P88">
         <f>SUM(O$5:$O88)</f>
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>439.05</v>
       </c>
       <c r="R88">
-        <f t="shared" si="13"/>
-        <v>340.00000000000023</v>
+        <f t="shared" si="14"/>
+        <v>680.00000000000045</v>
       </c>
     </row>
     <row r="89" spans="11:29" x14ac:dyDescent="0.3">
@@ -7795,28 +7882,28 @@
         <v>12</v>
       </c>
       <c r="M89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>76500</v>
       </c>
       <c r="N89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O89">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P89">
         <f>SUM(O$5:$O89)</f>
-        <v>202.5</v>
+        <v>101.25</v>
       </c>
       <c r="Q89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>454.35</v>
       </c>
       <c r="R89">
-        <f t="shared" si="13"/>
-        <v>340.00000000000023</v>
+        <f t="shared" si="14"/>
+        <v>680.00000000000045</v>
       </c>
     </row>
     <row r="90" spans="11:29" x14ac:dyDescent="0.3">
@@ -7827,28 +7914,28 @@
         <v>12</v>
       </c>
       <c r="M90" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81000</v>
       </c>
       <c r="N90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O90">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P90">
         <f>SUM(O$5:$O90)</f>
-        <v>207</v>
+        <v>103.5</v>
       </c>
       <c r="Q90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>470.1</v>
       </c>
       <c r="R90">
-        <f t="shared" si="13"/>
-        <v>350</v>
+        <f t="shared" si="14"/>
+        <v>700</v>
       </c>
     </row>
     <row r="91" spans="11:29" x14ac:dyDescent="0.3">
@@ -7859,28 +7946,28 @@
         <v>12</v>
       </c>
       <c r="M91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81000</v>
       </c>
       <c r="N91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O91">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P91">
         <f>SUM(O$5:$O91)</f>
-        <v>211.5</v>
+        <v>105.75</v>
       </c>
       <c r="Q91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>485.85</v>
       </c>
       <c r="R91">
-        <f t="shared" si="13"/>
-        <v>350</v>
+        <f t="shared" si="14"/>
+        <v>700</v>
       </c>
     </row>
     <row r="92" spans="11:29" x14ac:dyDescent="0.3">
@@ -7891,28 +7978,28 @@
         <v>12</v>
       </c>
       <c r="M92" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81000</v>
       </c>
       <c r="N92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O92">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P92">
         <f>SUM(O$5:$O92)</f>
-        <v>216</v>
+        <v>108</v>
       </c>
       <c r="Q92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>501.6</v>
       </c>
       <c r="R92">
-        <f t="shared" si="13"/>
-        <v>350</v>
+        <f t="shared" si="14"/>
+        <v>700</v>
       </c>
     </row>
     <row r="93" spans="11:29" x14ac:dyDescent="0.3">
@@ -7923,28 +8010,28 @@
         <v>12</v>
       </c>
       <c r="M93" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81000</v>
       </c>
       <c r="N93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O93">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P93">
         <f>SUM(O$5:$O93)</f>
-        <v>220.5</v>
+        <v>110.25</v>
       </c>
       <c r="Q93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>517.79999999999995</v>
       </c>
       <c r="R93">
-        <f t="shared" si="13"/>
-        <v>359.99999999999847</v>
+        <f t="shared" si="14"/>
+        <v>719.99999999999693</v>
       </c>
     </row>
     <row r="94" spans="11:29" x14ac:dyDescent="0.3">
@@ -7955,28 +8042,28 @@
         <v>12</v>
       </c>
       <c r="M94" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>81000</v>
       </c>
       <c r="N94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="O94">
-        <f t="shared" si="10"/>
-        <v>4.5</v>
+        <f t="shared" si="11"/>
+        <v>2.25</v>
       </c>
       <c r="P94">
         <f>SUM(O$5:$O94)</f>
-        <v>225</v>
+        <v>112.5</v>
       </c>
       <c r="Q94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>534</v>
       </c>
       <c r="R94">
-        <f t="shared" si="13"/>
-        <v>360.00000000000102</v>
+        <f t="shared" si="14"/>
+        <v>720.00000000000205</v>
       </c>
     </row>
     <row r="95" spans="11:29" x14ac:dyDescent="0.3">
@@ -7987,28 +8074,28 @@
         <v>12</v>
       </c>
       <c r="M95" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95000</v>
       </c>
       <c r="N95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O95">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P95">
         <f>SUM(O$5:$O95)</f>
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="Q95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>552.5</v>
       </c>
       <c r="R95">
-        <f t="shared" si="13"/>
-        <v>370</v>
+        <f t="shared" si="14"/>
+        <v>740</v>
       </c>
     </row>
     <row r="96" spans="11:29" x14ac:dyDescent="0.3">
@@ -8019,28 +8106,28 @@
         <v>12</v>
       </c>
       <c r="M96" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95000</v>
       </c>
       <c r="N96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O96">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P96">
         <f>SUM(O$5:$O96)</f>
-        <v>235</v>
+        <v>117.5</v>
       </c>
       <c r="Q96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>571</v>
       </c>
       <c r="R96">
-        <f t="shared" si="13"/>
-        <v>370</v>
+        <f t="shared" si="14"/>
+        <v>740</v>
       </c>
     </row>
     <row r="97" spans="11:18" x14ac:dyDescent="0.3">
@@ -8051,28 +8138,28 @@
         <v>12</v>
       </c>
       <c r="M97" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95000</v>
       </c>
       <c r="N97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O97">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P97">
         <f>SUM(O$5:$O97)</f>
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="Q97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>589.5</v>
       </c>
       <c r="R97">
-        <f t="shared" si="13"/>
-        <v>370</v>
+        <f t="shared" si="14"/>
+        <v>740</v>
       </c>
     </row>
     <row r="98" spans="11:18" x14ac:dyDescent="0.3">
@@ -8083,28 +8170,28 @@
         <v>12</v>
       </c>
       <c r="M98" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95000</v>
       </c>
       <c r="N98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O98">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P98">
         <f>SUM(O$5:$O98)</f>
-        <v>245</v>
+        <v>122.5</v>
       </c>
       <c r="Q98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>608.5</v>
       </c>
       <c r="R98">
-        <f t="shared" si="13"/>
-        <v>380</v>
+        <f t="shared" si="14"/>
+        <v>760</v>
       </c>
     </row>
     <row r="99" spans="11:18" x14ac:dyDescent="0.3">
@@ -8115,28 +8202,28 @@
         <v>12</v>
       </c>
       <c r="M99" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>95000</v>
       </c>
       <c r="N99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O99">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P99">
         <f>SUM(O$5:$O99)</f>
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="Q99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>627.5</v>
       </c>
       <c r="R99">
-        <f t="shared" si="13"/>
-        <v>380</v>
+        <f t="shared" si="14"/>
+        <v>760</v>
       </c>
     </row>
     <row r="100" spans="11:18" x14ac:dyDescent="0.3">
@@ -8147,28 +8234,28 @@
         <v>12</v>
       </c>
       <c r="M100" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100000</v>
       </c>
       <c r="N100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O100">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P100">
         <f>SUM(O$5:$O100)</f>
-        <v>255</v>
+        <v>127.5</v>
       </c>
       <c r="Q100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>647</v>
       </c>
       <c r="R100">
-        <f t="shared" si="13"/>
-        <v>390</v>
+        <f t="shared" si="14"/>
+        <v>780</v>
       </c>
     </row>
     <row r="101" spans="11:18" x14ac:dyDescent="0.3">
@@ -8179,28 +8266,28 @@
         <v>12</v>
       </c>
       <c r="M101" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100000</v>
       </c>
       <c r="N101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O101">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P101">
         <f>SUM(O$5:$O101)</f>
-        <v>260</v>
+        <v>130</v>
       </c>
       <c r="Q101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>666.5</v>
       </c>
       <c r="R101">
-        <f t="shared" si="13"/>
-        <v>390</v>
+        <f t="shared" si="14"/>
+        <v>780</v>
       </c>
     </row>
     <row r="102" spans="11:18" x14ac:dyDescent="0.3">
@@ -8211,28 +8298,28 @@
         <v>12</v>
       </c>
       <c r="M102" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100000</v>
       </c>
       <c r="N102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O102">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P102">
         <f>SUM(O$5:$O102)</f>
-        <v>265</v>
+        <v>132.5</v>
       </c>
       <c r="Q102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>686</v>
       </c>
       <c r="R102">
-        <f t="shared" si="13"/>
-        <v>390</v>
+        <f t="shared" si="14"/>
+        <v>780</v>
       </c>
     </row>
     <row r="103" spans="11:18" x14ac:dyDescent="0.3">
@@ -8243,28 +8330,28 @@
         <v>12</v>
       </c>
       <c r="M103" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100000</v>
       </c>
       <c r="N103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O103">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P103">
         <f>SUM(O$5:$O103)</f>
-        <v>270</v>
+        <v>135</v>
       </c>
       <c r="Q103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>706</v>
       </c>
       <c r="R103">
-        <f t="shared" si="13"/>
-        <v>400</v>
+        <f t="shared" si="14"/>
+        <v>800</v>
       </c>
     </row>
     <row r="104" spans="11:18" x14ac:dyDescent="0.3">
@@ -8275,28 +8362,28 @@
         <v>12</v>
       </c>
       <c r="M104" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>100000</v>
       </c>
       <c r="N104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="O104">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="11"/>
+        <v>2.5</v>
       </c>
       <c r="P104">
         <f>SUM(O$5:$O104)</f>
-        <v>275</v>
+        <v>137.5</v>
       </c>
       <c r="Q104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>726</v>
       </c>
       <c r="R104">
-        <f t="shared" si="13"/>
-        <v>400</v>
+        <f t="shared" si="14"/>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTable.xlsx
+++ b/Assets/06.Table/StudentTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55AD8218-830A-4DBC-B5E9-2F354C70DBF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C0C224-1D6A-4C45-ABE9-A6269A66EB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="StudentTable" sheetId="2" r:id="rId1"/>
@@ -260,12 +260,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -282,7 +288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,6 +305,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -319,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +616,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K109" sqref="K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -712,7 +721,7 @@
         <v>106</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="H3">
         <v>267</v>
@@ -743,7 +752,7 @@
         <v>106</v>
       </c>
       <c r="G4">
-        <v>0.15</v>
+        <v>1.05</v>
       </c>
       <c r="H4">
         <v>267</v>
@@ -774,7 +783,7 @@
         <v>106</v>
       </c>
       <c r="G5">
-        <v>0.25</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="H5">
         <v>267</v>
@@ -805,7 +814,7 @@
         <v>106</v>
       </c>
       <c r="G6">
-        <v>0.35</v>
+        <v>3.05</v>
       </c>
       <c r="H6">
         <v>267</v>
@@ -836,7 +845,7 @@
         <v>106</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>4.55</v>
       </c>
       <c r="H7">
         <v>267</v>
@@ -867,7 +876,7 @@
         <v>106</v>
       </c>
       <c r="G8">
-        <v>0.65</v>
+        <v>6.05</v>
       </c>
       <c r="H8">
         <v>267</v>
@@ -898,7 +907,7 @@
         <v>106</v>
       </c>
       <c r="G9">
-        <v>0.8</v>
+        <v>7.55</v>
       </c>
       <c r="H9">
         <v>267</v>
@@ -929,7 +938,7 @@
         <v>106</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="H10">
         <v>267</v>
@@ -960,7 +969,7 @@
         <v>106</v>
       </c>
       <c r="G11">
-        <v>1.2</v>
+        <v>11.55</v>
       </c>
       <c r="H11">
         <v>267</v>
@@ -991,7 +1000,7 @@
         <v>106</v>
       </c>
       <c r="G12">
-        <v>1.7</v>
+        <v>16.55</v>
       </c>
       <c r="H12">
         <v>268</v>
@@ -1022,7 +1031,7 @@
         <v>106</v>
       </c>
       <c r="G13">
-        <v>2.2000000000000002</v>
+        <v>21.55</v>
       </c>
       <c r="H13">
         <v>268</v>
@@ -1053,7 +1062,7 @@
         <v>106</v>
       </c>
       <c r="G14">
-        <v>2.7</v>
+        <v>26.55</v>
       </c>
       <c r="H14">
         <v>268</v>
@@ -1084,7 +1093,7 @@
         <v>106</v>
       </c>
       <c r="G15">
-        <v>3.3</v>
+        <v>32.549999999999997</v>
       </c>
       <c r="H15">
         <v>268</v>
@@ -1115,7 +1124,7 @@
         <v>106</v>
       </c>
       <c r="G16">
-        <v>3.9</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="H16">
         <v>268</v>
@@ -1146,7 +1155,7 @@
         <v>106</v>
       </c>
       <c r="G17">
-        <v>4.5999999999999996</v>
+        <v>45.55</v>
       </c>
       <c r="H17">
         <v>268</v>
@@ -1177,7 +1186,7 @@
         <v>106</v>
       </c>
       <c r="G18">
-        <v>5.3</v>
+        <v>52.55</v>
       </c>
       <c r="H18">
         <v>268</v>
@@ -1208,7 +1217,7 @@
         <v>106</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>59.55</v>
       </c>
       <c r="H19">
         <v>268</v>
@@ -1239,7 +1248,7 @@
         <v>106</v>
       </c>
       <c r="G20">
-        <v>6.8</v>
+        <v>67.55</v>
       </c>
       <c r="H20">
         <v>268</v>
@@ -1270,7 +1279,7 @@
         <v>106</v>
       </c>
       <c r="G21">
-        <v>7.6</v>
+        <v>75.55</v>
       </c>
       <c r="H21">
         <v>268</v>
@@ -1301,7 +1310,7 @@
         <v>106</v>
       </c>
       <c r="G22">
-        <v>8.9499999999999993</v>
+        <v>89.05</v>
       </c>
       <c r="H22">
         <v>269</v>
@@ -1332,7 +1341,7 @@
         <v>106</v>
       </c>
       <c r="G23">
-        <v>10.3</v>
+        <v>102.55</v>
       </c>
       <c r="H23">
         <v>269</v>
@@ -1363,7 +1372,7 @@
         <v>106</v>
       </c>
       <c r="G24">
-        <v>11.65</v>
+        <v>116.05</v>
       </c>
       <c r="H24">
         <v>269</v>
@@ -1394,7 +1403,7 @@
         <v>106</v>
       </c>
       <c r="G25">
-        <v>13.15</v>
+        <v>131.05000000000001</v>
       </c>
       <c r="H25">
         <v>269</v>
@@ -1425,7 +1434,7 @@
         <v>106</v>
       </c>
       <c r="G26">
-        <v>14.65</v>
+        <v>146.05000000000001</v>
       </c>
       <c r="H26">
         <v>269</v>
@@ -1456,7 +1465,7 @@
         <v>106</v>
       </c>
       <c r="G27">
-        <v>16.3</v>
+        <v>162.55000000000001</v>
       </c>
       <c r="H27">
         <v>269</v>
@@ -1487,7 +1496,7 @@
         <v>106</v>
       </c>
       <c r="G28">
-        <v>17.95</v>
+        <v>179.05</v>
       </c>
       <c r="H28">
         <v>269</v>
@@ -1518,7 +1527,7 @@
         <v>106</v>
       </c>
       <c r="G29">
-        <v>19.600000000000001</v>
+        <v>195.55</v>
       </c>
       <c r="H29">
         <v>269</v>
@@ -1549,7 +1558,7 @@
         <v>106</v>
       </c>
       <c r="G30">
-        <v>21.4</v>
+        <v>213.55</v>
       </c>
       <c r="H30">
         <v>269</v>
@@ -1580,7 +1589,7 @@
         <v>106</v>
       </c>
       <c r="G31">
-        <v>23.2</v>
+        <v>231.55</v>
       </c>
       <c r="H31">
         <v>269</v>
@@ -1611,7 +1620,7 @@
         <v>106</v>
       </c>
       <c r="G32">
-        <v>25.8</v>
+        <v>257.55</v>
       </c>
       <c r="H32">
         <v>270</v>
@@ -1642,7 +1651,7 @@
         <v>106</v>
       </c>
       <c r="G33">
-        <v>28.4</v>
+        <v>283.55</v>
       </c>
       <c r="H33">
         <v>270</v>
@@ -1673,7 +1682,7 @@
         <v>106</v>
       </c>
       <c r="G34">
-        <v>31</v>
+        <v>309.55</v>
       </c>
       <c r="H34">
         <v>270</v>
@@ -1704,7 +1713,7 @@
         <v>106</v>
       </c>
       <c r="G35">
-        <v>33.799999999999997</v>
+        <v>337.55</v>
       </c>
       <c r="H35">
         <v>270</v>
@@ -1735,7 +1744,7 @@
         <v>106</v>
       </c>
       <c r="G36">
-        <v>36.6</v>
+        <v>365.55</v>
       </c>
       <c r="H36">
         <v>270</v>
@@ -1766,7 +1775,7 @@
         <v>106</v>
       </c>
       <c r="G37">
-        <v>39.6</v>
+        <v>395.55</v>
       </c>
       <c r="H37">
         <v>270</v>
@@ -1797,7 +1806,7 @@
         <v>106</v>
       </c>
       <c r="G38">
-        <v>42.6</v>
+        <v>425.55</v>
       </c>
       <c r="H38">
         <v>270</v>
@@ -1828,7 +1837,7 @@
         <v>106</v>
       </c>
       <c r="G39">
-        <v>45.6</v>
+        <v>455.55</v>
       </c>
       <c r="H39">
         <v>270</v>
@@ -1859,7 +1868,7 @@
         <v>106</v>
       </c>
       <c r="G40">
-        <v>48.8</v>
+        <v>487.55</v>
       </c>
       <c r="H40">
         <v>270</v>
@@ -1890,7 +1899,7 @@
         <v>106</v>
       </c>
       <c r="G41">
-        <v>52</v>
+        <v>519.54999999999995</v>
       </c>
       <c r="H41">
         <v>270</v>
@@ -1921,7 +1930,7 @@
         <v>106</v>
       </c>
       <c r="G42">
-        <v>56.25</v>
+        <v>562.04999999999995</v>
       </c>
       <c r="H42">
         <v>271</v>
@@ -1952,7 +1961,7 @@
         <v>106</v>
       </c>
       <c r="G43">
-        <v>60.5</v>
+        <v>604.54999999999995</v>
       </c>
       <c r="H43">
         <v>271</v>
@@ -1983,7 +1992,7 @@
         <v>106</v>
       </c>
       <c r="G44">
-        <v>64.75</v>
+        <v>647.04999999999995</v>
       </c>
       <c r="H44">
         <v>271</v>
@@ -2014,7 +2023,7 @@
         <v>106</v>
       </c>
       <c r="G45">
-        <v>69.25</v>
+        <v>692.05</v>
       </c>
       <c r="H45">
         <v>271</v>
@@ -2045,7 +2054,7 @@
         <v>106</v>
       </c>
       <c r="G46">
-        <v>73.75</v>
+        <v>737.05</v>
       </c>
       <c r="H46">
         <v>271</v>
@@ -2076,7 +2085,7 @@
         <v>106</v>
       </c>
       <c r="G47">
-        <v>78.5</v>
+        <v>784.55</v>
       </c>
       <c r="H47">
         <v>271</v>
@@ -2107,7 +2116,7 @@
         <v>106</v>
       </c>
       <c r="G48">
-        <v>83.25</v>
+        <v>832.05</v>
       </c>
       <c r="H48">
         <v>271</v>
@@ -2138,7 +2147,7 @@
         <v>106</v>
       </c>
       <c r="G49">
-        <v>88</v>
+        <v>879.55</v>
       </c>
       <c r="H49">
         <v>271</v>
@@ -2169,7 +2178,7 @@
         <v>106</v>
       </c>
       <c r="G50">
-        <v>93</v>
+        <v>929.55</v>
       </c>
       <c r="H50">
         <v>271</v>
@@ -2200,7 +2209,7 @@
         <v>106</v>
       </c>
       <c r="G51">
-        <v>98</v>
+        <v>979.55</v>
       </c>
       <c r="H51">
         <v>271</v>
@@ -2231,7 +2240,7 @@
         <v>106</v>
       </c>
       <c r="G52">
-        <v>104.3</v>
+        <v>1042.55</v>
       </c>
       <c r="H52">
         <v>272</v>
@@ -2262,7 +2271,7 @@
         <v>106</v>
       </c>
       <c r="G53">
-        <v>110.6</v>
+        <v>1105.55</v>
       </c>
       <c r="H53">
         <v>272</v>
@@ -2293,7 +2302,7 @@
         <v>106</v>
       </c>
       <c r="G54">
-        <v>116.9</v>
+        <v>1168.55</v>
       </c>
       <c r="H54">
         <v>272</v>
@@ -2324,7 +2333,7 @@
         <v>106</v>
       </c>
       <c r="G55">
-        <v>123.5</v>
+        <v>1234.55</v>
       </c>
       <c r="H55">
         <v>272</v>
@@ -2355,7 +2364,7 @@
         <v>106</v>
       </c>
       <c r="G56">
-        <v>130.1</v>
+        <v>1300.55</v>
       </c>
       <c r="H56">
         <v>272</v>
@@ -2386,7 +2395,7 @@
         <v>106</v>
       </c>
       <c r="G57">
-        <v>137</v>
+        <v>1369.55</v>
       </c>
       <c r="H57">
         <v>272</v>
@@ -2417,7 +2426,7 @@
         <v>106</v>
       </c>
       <c r="G58">
-        <v>143.9</v>
+        <v>1438.55</v>
       </c>
       <c r="H58">
         <v>272</v>
@@ -2448,7 +2457,7 @@
         <v>106</v>
       </c>
       <c r="G59">
-        <v>150.80000000000001</v>
+        <v>1507.55</v>
       </c>
       <c r="H59">
         <v>272</v>
@@ -2479,7 +2488,7 @@
         <v>106</v>
       </c>
       <c r="G60">
-        <v>158</v>
+        <v>1579.55</v>
       </c>
       <c r="H60">
         <v>272</v>
@@ -2510,7 +2519,7 @@
         <v>106</v>
       </c>
       <c r="G61">
-        <v>165.2</v>
+        <v>1651.55</v>
       </c>
       <c r="H61">
         <v>272</v>
@@ -2541,7 +2550,7 @@
         <v>106</v>
       </c>
       <c r="G62">
-        <v>173.95</v>
+        <v>1739.05</v>
       </c>
       <c r="H62">
         <v>273</v>
@@ -2572,7 +2581,7 @@
         <v>106</v>
       </c>
       <c r="G63">
-        <v>182.7</v>
+        <v>1826.55</v>
       </c>
       <c r="H63">
         <v>273</v>
@@ -2603,7 +2612,7 @@
         <v>106</v>
       </c>
       <c r="G64">
-        <v>191.45</v>
+        <v>1914.05</v>
       </c>
       <c r="H64">
         <v>273</v>
@@ -2634,7 +2643,7 @@
         <v>106</v>
       </c>
       <c r="G65">
-        <v>200.55</v>
+        <v>2005.05</v>
       </c>
       <c r="H65">
         <v>273</v>
@@ -2665,7 +2674,7 @@
         <v>106</v>
       </c>
       <c r="G66">
-        <v>209.65</v>
+        <v>2096.0500000000002</v>
       </c>
       <c r="H66">
         <v>273</v>
@@ -2696,7 +2705,7 @@
         <v>106</v>
       </c>
       <c r="G67">
-        <v>219.1</v>
+        <v>2190.5500000000002</v>
       </c>
       <c r="H67">
         <v>273</v>
@@ -2727,7 +2736,7 @@
         <v>106</v>
       </c>
       <c r="G68">
-        <v>228.55</v>
+        <v>2285.0500000000002</v>
       </c>
       <c r="H68">
         <v>273</v>
@@ -2758,7 +2767,7 @@
         <v>106</v>
       </c>
       <c r="G69">
-        <v>238</v>
+        <v>2379.5500000000002</v>
       </c>
       <c r="H69">
         <v>273</v>
@@ -2789,7 +2798,7 @@
         <v>106</v>
       </c>
       <c r="G70">
-        <v>247.8</v>
+        <v>2477.5500000000002</v>
       </c>
       <c r="H70">
         <v>273</v>
@@ -2820,7 +2829,7 @@
         <v>106</v>
       </c>
       <c r="G71">
-        <v>257.60000000000002</v>
+        <v>2575.5500000000002</v>
       </c>
       <c r="H71">
         <v>273</v>
@@ -2851,7 +2860,7 @@
         <v>106</v>
       </c>
       <c r="G72">
-        <v>269.2</v>
+        <v>2691.55</v>
       </c>
       <c r="H72">
         <v>274</v>
@@ -2882,7 +2891,7 @@
         <v>106</v>
       </c>
       <c r="G73">
-        <v>280.8</v>
+        <v>2807.55</v>
       </c>
       <c r="H73">
         <v>274</v>
@@ -2913,7 +2922,7 @@
         <v>106</v>
       </c>
       <c r="G74">
-        <v>292.39999999999998</v>
+        <v>2923.55</v>
       </c>
       <c r="H74">
         <v>274</v>
@@ -2944,7 +2953,7 @@
         <v>106</v>
       </c>
       <c r="G75">
-        <v>304.39999999999998</v>
+        <v>3043.55</v>
       </c>
       <c r="H75">
         <v>274</v>
@@ -2975,7 +2984,7 @@
         <v>106</v>
       </c>
       <c r="G76">
-        <v>316.39999999999998</v>
+        <v>3163.55</v>
       </c>
       <c r="H76">
         <v>274</v>
@@ -3006,7 +3015,7 @@
         <v>106</v>
       </c>
       <c r="G77">
-        <v>328.8</v>
+        <v>3287.55</v>
       </c>
       <c r="H77">
         <v>274</v>
@@ -3037,7 +3046,7 @@
         <v>106</v>
       </c>
       <c r="G78">
-        <v>341.2</v>
+        <v>3411.55</v>
       </c>
       <c r="H78">
         <v>274</v>
@@ -3068,7 +3077,7 @@
         <v>106</v>
       </c>
       <c r="G79">
-        <v>353.6</v>
+        <v>3535.55</v>
       </c>
       <c r="H79">
         <v>274</v>
@@ -3099,7 +3108,7 @@
         <v>106</v>
       </c>
       <c r="G80">
-        <v>366.4</v>
+        <v>3663.55</v>
       </c>
       <c r="H80">
         <v>274</v>
@@ -3130,7 +3139,7 @@
         <v>106</v>
       </c>
       <c r="G81">
-        <v>379.2</v>
+        <v>3791.55</v>
       </c>
       <c r="H81">
         <v>274</v>
@@ -3161,7 +3170,7 @@
         <v>106</v>
       </c>
       <c r="G82">
-        <v>394.05</v>
+        <v>3940.05</v>
       </c>
       <c r="H82">
         <v>275</v>
@@ -3192,7 +3201,7 @@
         <v>106</v>
       </c>
       <c r="G83">
-        <v>408.9</v>
+        <v>4088.55</v>
       </c>
       <c r="H83">
         <v>275</v>
@@ -3223,7 +3232,7 @@
         <v>106</v>
       </c>
       <c r="G84">
-        <v>423.75</v>
+        <v>4237.05</v>
       </c>
       <c r="H84">
         <v>275</v>
@@ -3254,7 +3263,7 @@
         <v>106</v>
       </c>
       <c r="G85">
-        <v>439.05</v>
+        <v>4390.05</v>
       </c>
       <c r="H85">
         <v>275</v>
@@ -3285,7 +3294,7 @@
         <v>106</v>
       </c>
       <c r="G86">
-        <v>454.35</v>
+        <v>4543.05</v>
       </c>
       <c r="H86">
         <v>275</v>
@@ -3316,7 +3325,7 @@
         <v>106</v>
       </c>
       <c r="G87">
-        <v>470.1</v>
+        <v>4700.55</v>
       </c>
       <c r="H87">
         <v>275</v>
@@ -3347,7 +3356,7 @@
         <v>106</v>
       </c>
       <c r="G88">
-        <v>485.85</v>
+        <v>4858.05</v>
       </c>
       <c r="H88">
         <v>275</v>
@@ -3378,7 +3387,7 @@
         <v>106</v>
       </c>
       <c r="G89">
-        <v>501.6</v>
+        <v>5015.55</v>
       </c>
       <c r="H89">
         <v>275</v>
@@ -3409,7 +3418,7 @@
         <v>106</v>
       </c>
       <c r="G90">
-        <v>517.79999999999995</v>
+        <v>5177.55</v>
       </c>
       <c r="H90">
         <v>275</v>
@@ -3440,7 +3449,7 @@
         <v>106</v>
       </c>
       <c r="G91">
-        <v>534</v>
+        <v>5339.55</v>
       </c>
       <c r="H91">
         <v>275</v>
@@ -3471,7 +3480,7 @@
         <v>106</v>
       </c>
       <c r="G92">
-        <v>552.5</v>
+        <v>5524.55</v>
       </c>
       <c r="H92">
         <v>276</v>
@@ -3502,7 +3511,7 @@
         <v>106</v>
       </c>
       <c r="G93">
-        <v>571</v>
+        <v>5709.55</v>
       </c>
       <c r="H93">
         <v>276</v>
@@ -3533,7 +3542,7 @@
         <v>106</v>
       </c>
       <c r="G94">
-        <v>589.5</v>
+        <v>5894.55</v>
       </c>
       <c r="H94">
         <v>276</v>
@@ -3564,7 +3573,7 @@
         <v>106</v>
       </c>
       <c r="G95">
-        <v>608.5</v>
+        <v>6084.55</v>
       </c>
       <c r="H95">
         <v>276</v>
@@ -3595,7 +3604,7 @@
         <v>106</v>
       </c>
       <c r="G96">
-        <v>627.5</v>
+        <v>6274.55</v>
       </c>
       <c r="H96">
         <v>276</v>
@@ -3626,7 +3635,7 @@
         <v>106</v>
       </c>
       <c r="G97">
-        <v>647</v>
+        <v>6469.55</v>
       </c>
       <c r="H97">
         <v>276</v>
@@ -3657,7 +3666,7 @@
         <v>106</v>
       </c>
       <c r="G98">
-        <v>666.5</v>
+        <v>6664.55</v>
       </c>
       <c r="H98">
         <v>276</v>
@@ -3688,7 +3697,7 @@
         <v>106</v>
       </c>
       <c r="G99">
-        <v>686</v>
+        <v>6859.55</v>
       </c>
       <c r="H99">
         <v>276</v>
@@ -3719,7 +3728,7 @@
         <v>106</v>
       </c>
       <c r="G100">
-        <v>706</v>
+        <v>7059.55</v>
       </c>
       <c r="H100">
         <v>276</v>
@@ -3750,7 +3759,7 @@
         <v>106</v>
       </c>
       <c r="G101">
-        <v>726</v>
+        <v>7259.55</v>
       </c>
       <c r="H101">
         <v>276</v>
@@ -3772,8 +3781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536973B6-8AC6-4718-8BFC-B5F1F19019F3}">
   <dimension ref="D2:AC104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3919,11 +3928,11 @@
       </c>
       <c r="W5">
         <f>VLOOKUP(U5,K:Q,7,FALSE)+$AC$84</f>
-        <v>381.2</v>
+        <v>391.55</v>
       </c>
       <c r="X5" s="4">
         <f>((100+W5*100)/100)*V5</f>
-        <v>3822000000000000</v>
+        <v>3925500000000000</v>
       </c>
       <c r="Y5">
         <f t="shared" ref="Y5:Y13" si="0">ROUND(X5/$X$5,1)</f>
@@ -3978,12 +3987,12 @@
         <v>0.5</v>
       </c>
       <c r="Q6">
-        <f>ROUNDUP(Q5+0.05*N6*(QUOTIENT(K6,2.5)+1),2)</f>
-        <v>0.1</v>
+        <f t="shared" ref="Q6:Q70" si="4">ROUNDUP(Q5+0.5*N6*(QUOTIENT(K6,2.5)+1),2)</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R6">
         <f>(Q6-Q5)*100/O6</f>
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="T6">
         <v>2</v>
@@ -3995,22 +4004,22 @@
         <v>20000000000000</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W14" si="4">VLOOKUP(U6,K:Q,7,FALSE)+$AC$84</f>
-        <v>387.6</v>
+        <f t="shared" ref="W6:W14" si="5">VLOOKUP(U6,K:Q,7,FALSE)+$AC$84</f>
+        <v>455.55</v>
       </c>
       <c r="X6" s="3">
-        <f t="shared" ref="X6:X14" si="5">((100+W6*100)/100)*V6</f>
-        <v>7772000000000000</v>
+        <f t="shared" ref="X6:X14" si="6">((100+W6*100)/100)*V6</f>
+        <v>9131000000000000</v>
       </c>
       <c r="Y6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="AA6">
         <v>2</v>
       </c>
       <c r="AB6" s="2">
-        <f t="shared" ref="AB6:AB69" si="6">AB5*(10)</f>
+        <f t="shared" ref="AB6:AB69" si="7">AB5*(10)</f>
         <v>9.9999999999999998E+108</v>
       </c>
       <c r="AC6">
@@ -4056,12 +4065,12 @@
         <v>0.75</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q70" si="7">ROUNDUP(Q6+0.05*N7*(QUOTIENT(K7,2.5)+1),2)</f>
-        <v>0.15</v>
+        <f t="shared" si="4"/>
+        <v>1.05</v>
       </c>
       <c r="R7">
         <f t="shared" ref="R7:R70" si="8">(Q7-Q6)*100/O7</f>
-        <v>19.999999999999996</v>
+        <v>200</v>
       </c>
       <c r="T7">
         <v>3</v>
@@ -4073,22 +4082,22 @@
         <v>40000000000000</v>
       </c>
       <c r="W7">
-        <f t="shared" si="4"/>
-        <v>403.2</v>
+        <f t="shared" si="5"/>
+        <v>611.54999999999995</v>
       </c>
       <c r="X7" s="3">
-        <f t="shared" si="5"/>
-        <v>1.6168E+16</v>
+        <f t="shared" si="6"/>
+        <v>2.4502E+16</v>
       </c>
       <c r="Y7">
         <f t="shared" si="0"/>
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="AA7">
         <v>3</v>
       </c>
       <c r="AB7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+110</v>
       </c>
       <c r="AC7">
@@ -4134,12 +4143,12 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="7"/>
-        <v>0.25</v>
+        <f t="shared" si="4"/>
+        <v>2.0499999999999998</v>
       </c>
       <c r="R8">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>399.99999999999989</v>
       </c>
       <c r="T8">
         <v>4</v>
@@ -4151,22 +4160,22 @@
         <v>60000000000000</v>
       </c>
       <c r="W8">
-        <f t="shared" si="4"/>
-        <v>432</v>
+        <f t="shared" si="5"/>
+        <v>899.55</v>
       </c>
       <c r="X8" s="3">
-        <f t="shared" si="5"/>
-        <v>2.598E+16</v>
+        <f t="shared" si="6"/>
+        <v>5.4033E+16</v>
       </c>
       <c r="Y8">
         <f t="shared" si="0"/>
-        <v>6.8</v>
+        <v>13.8</v>
       </c>
       <c r="AA8">
         <v>4</v>
       </c>
       <c r="AB8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+111</v>
       </c>
       <c r="AC8">
@@ -4212,12 +4221,12 @@
         <v>1.25</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="7"/>
-        <v>0.35</v>
+        <f t="shared" si="4"/>
+        <v>3.05</v>
       </c>
       <c r="R9">
         <f t="shared" si="8"/>
-        <v>39.999999999999993</v>
+        <v>400</v>
       </c>
       <c r="T9">
         <v>5</v>
@@ -4229,22 +4238,22 @@
         <v>80000000000000</v>
       </c>
       <c r="W9">
-        <f t="shared" si="4"/>
-        <v>478</v>
+        <f t="shared" si="5"/>
+        <v>1359.55</v>
       </c>
       <c r="X9" s="3">
-        <f t="shared" si="5"/>
-        <v>3.832E+16</v>
+        <f t="shared" si="6"/>
+        <v>1.08844E+17</v>
       </c>
       <c r="Y9">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>27.7</v>
       </c>
       <c r="AA9">
         <v>5</v>
       </c>
       <c r="AB9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+112</v>
       </c>
       <c r="AC9">
@@ -4290,12 +4299,12 @@
         <v>1.5</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="7"/>
-        <v>0.5</v>
+        <f t="shared" si="4"/>
+        <v>4.55</v>
       </c>
       <c r="R10">
         <f t="shared" si="8"/>
-        <v>60.000000000000007</v>
+        <v>600</v>
       </c>
       <c r="T10">
         <v>6</v>
@@ -4307,22 +4316,22 @@
         <v>100000000000000</v>
       </c>
       <c r="W10">
-        <f t="shared" si="4"/>
-        <v>545.20000000000005</v>
+        <f t="shared" si="5"/>
+        <v>2031.55</v>
       </c>
       <c r="X10" s="3">
-        <f t="shared" si="5"/>
-        <v>5.4620000000000008E+16</v>
+        <f t="shared" si="6"/>
+        <v>2.03255E+17</v>
       </c>
       <c r="Y10">
         <f t="shared" si="0"/>
-        <v>14.3</v>
+        <v>51.8</v>
       </c>
       <c r="AA10">
         <v>6</v>
       </c>
       <c r="AB10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+113</v>
       </c>
       <c r="AC10">
@@ -4368,12 +4377,12 @@
         <v>1.75</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
-        <v>0.65</v>
+        <f t="shared" si="4"/>
+        <v>6.05</v>
       </c>
       <c r="R11">
         <f t="shared" si="8"/>
-        <v>60.000000000000007</v>
+        <v>600</v>
       </c>
       <c r="T11">
         <v>7</v>
@@ -4385,22 +4394,22 @@
         <v>140000000000000</v>
       </c>
       <c r="W11">
-        <f t="shared" si="4"/>
-        <v>637.6</v>
+        <f t="shared" si="5"/>
+        <v>2955.55</v>
       </c>
       <c r="X11" s="3">
-        <f t="shared" si="5"/>
-        <v>8.9404E+16</v>
+        <f t="shared" si="6"/>
+        <v>4.13917E+17</v>
       </c>
       <c r="Y11">
         <f t="shared" si="0"/>
-        <v>23.4</v>
+        <v>105.4</v>
       </c>
       <c r="AA11">
         <v>7</v>
       </c>
       <c r="AB11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+114</v>
       </c>
       <c r="AC11">
@@ -4446,12 +4455,12 @@
         <v>2</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="7"/>
-        <v>0.8</v>
+        <f t="shared" si="4"/>
+        <v>7.55</v>
       </c>
       <c r="R12">
         <f t="shared" si="8"/>
-        <v>60.000000000000007</v>
+        <v>600</v>
       </c>
       <c r="T12">
         <v>8</v>
@@ -4463,22 +4472,22 @@
         <v>180000000000000</v>
       </c>
       <c r="W12">
-        <f t="shared" si="4"/>
-        <v>759.2</v>
+        <f t="shared" si="5"/>
+        <v>4171.55</v>
       </c>
       <c r="X12" s="3">
-        <f t="shared" si="5"/>
-        <v>1.3683600000000002E+17</v>
+        <f t="shared" si="6"/>
+        <v>7.51059E+17</v>
       </c>
       <c r="Y12">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>191.3</v>
       </c>
       <c r="AA12">
         <v>8</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+115</v>
       </c>
       <c r="AC12">
@@ -4524,12 +4533,12 @@
         <v>2.25</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="7"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>9.5500000000000007</v>
       </c>
       <c r="R13">
         <f t="shared" si="8"/>
-        <v>79.999999999999986</v>
+        <v>800.00000000000034</v>
       </c>
       <c r="T13">
         <v>9</v>
@@ -4541,22 +4550,22 @@
         <v>220000000000000</v>
       </c>
       <c r="W13">
-        <f t="shared" si="4"/>
-        <v>914</v>
+        <f t="shared" si="5"/>
+        <v>5719.55</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="5"/>
-        <v>2.013E+17</v>
+        <f t="shared" si="6"/>
+        <v>1.258521E+18</v>
       </c>
       <c r="Y13">
         <f t="shared" si="0"/>
-        <v>52.7</v>
+        <v>320.60000000000002</v>
       </c>
       <c r="AA13">
         <v>9</v>
       </c>
       <c r="AB13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+116</v>
       </c>
       <c r="AC13">
@@ -4602,12 +4611,12 @@
         <v>2.5</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="7"/>
-        <v>1.2</v>
+        <f t="shared" si="4"/>
+        <v>11.55</v>
       </c>
       <c r="R14">
         <f t="shared" si="8"/>
-        <v>79.999999999999986</v>
+        <v>800</v>
       </c>
       <c r="T14">
         <v>10</v>
@@ -4619,22 +4628,22 @@
         <v>260000000000000</v>
       </c>
       <c r="W14">
-        <f t="shared" si="4"/>
-        <v>1106</v>
+        <f t="shared" si="5"/>
+        <v>7639.55</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="5"/>
-        <v>2.8782E+17</v>
+        <f t="shared" si="6"/>
+        <v>1.986543E+18</v>
       </c>
       <c r="Y14">
         <f>ROUND(X14/$X$5,1)</f>
-        <v>75.3</v>
+        <v>506.1</v>
       </c>
       <c r="AA14">
         <v>10</v>
       </c>
       <c r="AB14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+117</v>
       </c>
       <c r="AC14">
@@ -4681,19 +4690,19 @@
         <v>3</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="7"/>
-        <v>1.7</v>
+        <f t="shared" si="4"/>
+        <v>16.55</v>
       </c>
       <c r="R15">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="V15" s="3"/>
       <c r="AA15">
         <v>11</v>
       </c>
       <c r="AB15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+118</v>
       </c>
       <c r="AC15">
@@ -4740,18 +4749,22 @@
         <v>3.5</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="7"/>
-        <v>2.2000000000000002</v>
+        <f t="shared" si="4"/>
+        <v>21.55</v>
       </c>
       <c r="R16">
         <f t="shared" si="8"/>
-        <v>100.00000000000004</v>
+        <v>1000</v>
+      </c>
+      <c r="T16">
+        <f>Q61</f>
+        <v>1438.55</v>
       </c>
       <c r="AA16">
         <v>12</v>
       </c>
       <c r="AB16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+119</v>
       </c>
       <c r="AC16">
@@ -4798,12 +4811,15 @@
         <v>4</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
-        <v>2.7</v>
+        <f t="shared" si="4"/>
+        <v>26.55</v>
       </c>
       <c r="R17">
         <f t="shared" si="8"/>
-        <v>100</v>
+        <v>1000</v>
+      </c>
+      <c r="T17">
+        <v>143.9</v>
       </c>
       <c r="X17" s="2">
         <v>5E+16</v>
@@ -4812,7 +4828,7 @@
         <v>13</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+120</v>
       </c>
       <c r="AC17">
@@ -4859,18 +4875,18 @@
         <v>4.5</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
-        <v>3.3</v>
+        <f t="shared" si="4"/>
+        <v>32.549999999999997</v>
       </c>
       <c r="R18">
         <f t="shared" si="8"/>
-        <v>119.99999999999993</v>
+        <v>1199.9999999999993</v>
       </c>
       <c r="AA18">
         <v>14</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+121</v>
       </c>
       <c r="AC18">
@@ -4917,18 +4933,18 @@
         <v>5</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="7"/>
-        <v>3.9</v>
+        <f t="shared" si="4"/>
+        <v>38.549999999999997</v>
       </c>
       <c r="R19">
         <f t="shared" si="8"/>
-        <v>120.00000000000001</v>
+        <v>1200</v>
       </c>
       <c r="AA19">
         <v>15</v>
       </c>
       <c r="AB19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+122</v>
       </c>
       <c r="AC19">
@@ -4975,19 +4991,19 @@
         <v>5.5</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="7"/>
-        <v>4.5999999999999996</v>
+        <f t="shared" si="4"/>
+        <v>45.55</v>
       </c>
       <c r="R20">
         <f t="shared" si="8"/>
-        <v>139.99999999999994</v>
+        <v>1400</v>
       </c>
       <c r="X20" s="3"/>
       <c r="AA20">
         <v>16</v>
       </c>
       <c r="AB20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+123</v>
       </c>
       <c r="AC20">
@@ -5034,18 +5050,18 @@
         <v>6</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="7"/>
-        <v>5.3</v>
+        <f t="shared" si="4"/>
+        <v>52.55</v>
       </c>
       <c r="R21">
         <f t="shared" si="8"/>
-        <v>140.00000000000003</v>
+        <v>1400</v>
       </c>
       <c r="AA21">
         <v>17</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+124</v>
       </c>
       <c r="AC21">
@@ -5092,18 +5108,18 @@
         <v>6.5</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="7"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>59.55</v>
       </c>
       <c r="R22">
         <f t="shared" si="8"/>
-        <v>140.00000000000003</v>
+        <v>1400</v>
       </c>
       <c r="AA22">
         <v>18</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+125</v>
       </c>
       <c r="AC22">
@@ -5150,18 +5166,18 @@
         <v>7</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="7"/>
-        <v>6.8</v>
+        <f t="shared" si="4"/>
+        <v>67.55</v>
       </c>
       <c r="R23">
         <f t="shared" si="8"/>
-        <v>159.99999999999997</v>
+        <v>1600</v>
       </c>
       <c r="AA23">
         <v>19</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+126</v>
       </c>
       <c r="AC23">
@@ -5208,18 +5224,18 @@
         <v>7.5</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="7"/>
-        <v>7.6</v>
+        <f t="shared" si="4"/>
+        <v>75.55</v>
       </c>
       <c r="R24">
         <f t="shared" si="8"/>
-        <v>159.99999999999997</v>
+        <v>1600</v>
       </c>
       <c r="AA24">
         <v>20</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+127</v>
       </c>
       <c r="AC24">
@@ -5250,18 +5266,18 @@
         <v>8.25</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="7"/>
-        <v>8.9499999999999993</v>
+        <f t="shared" si="4"/>
+        <v>89.05</v>
       </c>
       <c r="R25">
         <f t="shared" si="8"/>
-        <v>179.99999999999997</v>
+        <v>1800</v>
       </c>
       <c r="AA25">
         <v>21</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="AC25">
@@ -5292,18 +5308,18 @@
         <v>9</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="7"/>
-        <v>10.3</v>
+        <f t="shared" si="4"/>
+        <v>102.55</v>
       </c>
       <c r="R26">
         <f t="shared" si="8"/>
-        <v>180.0000000000002</v>
+        <v>1800</v>
       </c>
       <c r="AA26">
         <v>22</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+129</v>
       </c>
       <c r="AC26">
@@ -5334,18 +5350,18 @@
         <v>9.75</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="7"/>
-        <v>11.65</v>
+        <f t="shared" si="4"/>
+        <v>116.05</v>
       </c>
       <c r="R27">
         <f t="shared" si="8"/>
-        <v>179.99999999999997</v>
+        <v>1800</v>
       </c>
       <c r="AA27">
         <v>23</v>
       </c>
       <c r="AB27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+130</v>
       </c>
       <c r="AC27">
@@ -5376,18 +5392,18 @@
         <v>10.5</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="7"/>
-        <v>13.15</v>
+        <f t="shared" si="4"/>
+        <v>131.05000000000001</v>
       </c>
       <c r="R28">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>2000.0000000000018</v>
       </c>
       <c r="AA28">
         <v>24</v>
       </c>
       <c r="AB28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+131</v>
       </c>
       <c r="AC28">
@@ -5418,18 +5434,18 @@
         <v>11.25</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="7"/>
-        <v>14.65</v>
+        <f t="shared" si="4"/>
+        <v>146.05000000000001</v>
       </c>
       <c r="R29">
         <f t="shared" si="8"/>
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="AA29">
         <v>25</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+132</v>
       </c>
       <c r="AC29">
@@ -5460,18 +5476,18 @@
         <v>12</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="7"/>
-        <v>16.3</v>
+        <f t="shared" si="4"/>
+        <v>162.55000000000001</v>
       </c>
       <c r="R30">
         <f t="shared" si="8"/>
-        <v>220.00000000000003</v>
+        <v>2200</v>
       </c>
       <c r="AA30">
         <v>26</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+133</v>
       </c>
       <c r="AC30">
@@ -5502,18 +5518,18 @@
         <v>12.75</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="7"/>
-        <v>17.95</v>
+        <f t="shared" si="4"/>
+        <v>179.05</v>
       </c>
       <c r="R31">
         <f t="shared" si="8"/>
-        <v>219.9999999999998</v>
+        <v>2200</v>
       </c>
       <c r="AA31">
         <v>27</v>
       </c>
       <c r="AB31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+134</v>
       </c>
       <c r="AC31">
@@ -5544,18 +5560,18 @@
         <v>13.5</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="7"/>
-        <v>19.600000000000001</v>
+        <f t="shared" si="4"/>
+        <v>195.55</v>
       </c>
       <c r="R32">
         <f t="shared" si="8"/>
-        <v>220.00000000000031</v>
+        <v>2200</v>
       </c>
       <c r="AA32">
         <v>28</v>
       </c>
       <c r="AB32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+135</v>
       </c>
       <c r="AC32">
@@ -5586,18 +5602,18 @@
         <v>14.25</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="7"/>
-        <v>21.4</v>
+        <f t="shared" si="4"/>
+        <v>213.55</v>
       </c>
       <c r="R33">
         <f t="shared" si="8"/>
-        <v>239.99999999999963</v>
+        <v>2400</v>
       </c>
       <c r="AA33">
         <v>29</v>
       </c>
       <c r="AB33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+136</v>
       </c>
       <c r="AC33">
@@ -5628,18 +5644,18 @@
         <v>15</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="7"/>
-        <v>23.2</v>
+        <f t="shared" si="4"/>
+        <v>231.55</v>
       </c>
       <c r="R34">
         <f t="shared" si="8"/>
-        <v>240.00000000000009</v>
+        <v>2400</v>
       </c>
       <c r="AA34">
         <v>30</v>
       </c>
       <c r="AB34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+137</v>
       </c>
       <c r="AC34">
@@ -5670,18 +5686,18 @@
         <v>16</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="7"/>
-        <v>25.8</v>
+        <f t="shared" si="4"/>
+        <v>257.55</v>
       </c>
       <c r="R35">
         <f t="shared" si="8"/>
-        <v>260.00000000000011</v>
+        <v>2600</v>
       </c>
       <c r="AA35">
         <v>31</v>
       </c>
       <c r="AB35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+138</v>
       </c>
       <c r="AC35">
@@ -5712,18 +5728,18 @@
         <v>17</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="7"/>
-        <v>28.4</v>
+        <f t="shared" si="4"/>
+        <v>283.55</v>
       </c>
       <c r="R36">
         <f t="shared" si="8"/>
-        <v>259.99999999999977</v>
+        <v>2600</v>
       </c>
       <c r="AA36">
         <v>32</v>
       </c>
       <c r="AB36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+139</v>
       </c>
       <c r="AC36">
@@ -5754,18 +5770,18 @@
         <v>18</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="7"/>
-        <v>31</v>
+        <f t="shared" si="4"/>
+        <v>309.55</v>
       </c>
       <c r="R37">
         <f t="shared" si="8"/>
-        <v>260.00000000000011</v>
+        <v>2600</v>
       </c>
       <c r="AA37">
         <v>33</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000003E+140</v>
       </c>
       <c r="AC37">
@@ -5796,18 +5812,18 @@
         <v>19</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="7"/>
-        <v>33.799999999999997</v>
+        <f t="shared" si="4"/>
+        <v>337.55</v>
       </c>
       <c r="R38">
         <f t="shared" si="8"/>
-        <v>279.99999999999972</v>
+        <v>2800</v>
       </c>
       <c r="AA38">
         <v>34</v>
       </c>
       <c r="AB38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+141</v>
       </c>
       <c r="AC38">
@@ -5838,18 +5854,18 @@
         <v>20</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="7"/>
-        <v>36.6</v>
+        <f t="shared" si="4"/>
+        <v>365.55</v>
       </c>
       <c r="R39">
         <f t="shared" si="8"/>
-        <v>280.00000000000045</v>
+        <v>2800</v>
       </c>
       <c r="AA39">
         <v>35</v>
       </c>
       <c r="AB39" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+142</v>
       </c>
       <c r="AC39">
@@ -5880,18 +5896,18 @@
         <v>21</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="7"/>
-        <v>39.6</v>
+        <f t="shared" si="4"/>
+        <v>395.55</v>
       </c>
       <c r="R40">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="AA40">
         <v>36</v>
       </c>
       <c r="AB40" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+143</v>
       </c>
       <c r="AC40">
@@ -5922,18 +5938,18 @@
         <v>22</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="7"/>
-        <v>42.6</v>
+        <f t="shared" si="4"/>
+        <v>425.55</v>
       </c>
       <c r="R41">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="AA41">
         <v>37</v>
       </c>
       <c r="AB41" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+144</v>
       </c>
       <c r="AC41">
@@ -5964,18 +5980,18 @@
         <v>23</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="7"/>
-        <v>45.6</v>
+        <f t="shared" si="4"/>
+        <v>455.55</v>
       </c>
       <c r="R42">
         <f t="shared" si="8"/>
-        <v>300</v>
+        <v>3000</v>
       </c>
       <c r="AA42">
         <v>38</v>
       </c>
       <c r="AB42" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000003E+145</v>
       </c>
       <c r="AC42">
@@ -6006,18 +6022,18 @@
         <v>24</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="7"/>
-        <v>48.8</v>
+        <f t="shared" si="4"/>
+        <v>487.55</v>
       </c>
       <c r="R43">
         <f t="shared" si="8"/>
-        <v>319.99999999999955</v>
+        <v>3200</v>
       </c>
       <c r="AA43">
         <v>39</v>
       </c>
       <c r="AB43" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+146</v>
       </c>
       <c r="AC43">
@@ -6048,18 +6064,18 @@
         <v>25</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="7"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>519.54999999999995</v>
       </c>
       <c r="R44">
         <f t="shared" si="8"/>
-        <v>320.00000000000028</v>
+        <v>3199.9999999999945</v>
       </c>
       <c r="AA44">
         <v>40</v>
       </c>
       <c r="AB44" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+147</v>
       </c>
       <c r="AC44">
@@ -6090,18 +6106,18 @@
         <v>26.25</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="7"/>
-        <v>56.25</v>
+        <f t="shared" si="4"/>
+        <v>562.04999999999995</v>
       </c>
       <c r="R45">
         <f t="shared" si="8"/>
-        <v>340</v>
+        <v>3400</v>
       </c>
       <c r="AA45">
         <v>41</v>
       </c>
       <c r="AB45" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+148</v>
       </c>
       <c r="AC45">
@@ -6132,18 +6148,18 @@
         <v>27.5</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="7"/>
-        <v>60.5</v>
+        <f t="shared" si="4"/>
+        <v>604.54999999999995</v>
       </c>
       <c r="R46">
         <f t="shared" si="8"/>
-        <v>340</v>
+        <v>3400</v>
       </c>
       <c r="AA46">
         <v>42</v>
       </c>
       <c r="AB46" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+149</v>
       </c>
       <c r="AC46">
@@ -6174,18 +6190,18 @@
         <v>28.75</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="7"/>
-        <v>64.75</v>
+        <f t="shared" si="4"/>
+        <v>647.04999999999995</v>
       </c>
       <c r="R47">
         <f t="shared" si="8"/>
-        <v>340</v>
+        <v>3400</v>
       </c>
       <c r="AA47">
         <v>43</v>
       </c>
       <c r="AB47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+150</v>
       </c>
       <c r="AC47">
@@ -6216,18 +6232,18 @@
         <v>30</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="7"/>
-        <v>69.25</v>
+        <f t="shared" si="4"/>
+        <v>692.05</v>
       </c>
       <c r="R48">
         <f t="shared" si="8"/>
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="AA48">
         <v>44</v>
       </c>
       <c r="AB48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+151</v>
       </c>
       <c r="AC48">
@@ -6258,18 +6274,18 @@
         <v>31.25</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="7"/>
-        <v>73.75</v>
+        <f t="shared" si="4"/>
+        <v>737.05</v>
       </c>
       <c r="R49">
         <f t="shared" si="8"/>
-        <v>360</v>
+        <v>3600</v>
       </c>
       <c r="AA49">
         <v>45</v>
       </c>
       <c r="AB49" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+152</v>
       </c>
       <c r="AC49">
@@ -6300,18 +6316,18 @@
         <v>32.5</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="7"/>
-        <v>78.5</v>
+        <f t="shared" si="4"/>
+        <v>784.55</v>
       </c>
       <c r="R50">
         <f t="shared" si="8"/>
-        <v>380</v>
+        <v>3800</v>
       </c>
       <c r="AA50">
         <v>46</v>
       </c>
       <c r="AB50" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+153</v>
       </c>
       <c r="AC50">
@@ -6342,18 +6358,18 @@
         <v>33.75</v>
       </c>
       <c r="Q51">
-        <f t="shared" si="7"/>
-        <v>83.25</v>
+        <f t="shared" si="4"/>
+        <v>832.05</v>
       </c>
       <c r="R51">
         <f t="shared" si="8"/>
-        <v>380</v>
+        <v>3800</v>
       </c>
       <c r="AA51">
         <v>47</v>
       </c>
       <c r="AB51" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+154</v>
       </c>
       <c r="AC51">
@@ -6384,18 +6400,18 @@
         <v>35</v>
       </c>
       <c r="Q52">
-        <f t="shared" si="7"/>
-        <v>88</v>
+        <f t="shared" si="4"/>
+        <v>879.55</v>
       </c>
       <c r="R52">
         <f t="shared" si="8"/>
-        <v>380</v>
+        <v>3800</v>
       </c>
       <c r="AA52">
         <v>48</v>
       </c>
       <c r="AB52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+155</v>
       </c>
       <c r="AC52">
@@ -6426,18 +6442,18 @@
         <v>36.25</v>
       </c>
       <c r="Q53">
-        <f t="shared" si="7"/>
-        <v>93</v>
+        <f t="shared" si="4"/>
+        <v>929.55</v>
       </c>
       <c r="R53">
         <f t="shared" si="8"/>
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="AA53">
         <v>49</v>
       </c>
       <c r="AB53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+156</v>
       </c>
       <c r="AC53">
@@ -6468,18 +6484,18 @@
         <v>37.5</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="7"/>
-        <v>98</v>
+        <f t="shared" si="4"/>
+        <v>979.55</v>
       </c>
       <c r="R54">
         <f t="shared" si="8"/>
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="AA54">
         <v>50</v>
       </c>
       <c r="AB54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+157</v>
       </c>
       <c r="AC54">
@@ -6510,18 +6526,18 @@
         <v>39</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="7"/>
-        <v>104.3</v>
+        <f t="shared" si="4"/>
+        <v>1042.55</v>
       </c>
       <c r="R55">
         <f t="shared" si="8"/>
-        <v>419.99999999999983</v>
+        <v>4200</v>
       </c>
       <c r="AA55">
         <v>51</v>
       </c>
       <c r="AB55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+158</v>
       </c>
       <c r="AC55">
@@ -6552,18 +6568,18 @@
         <v>40.5</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="7"/>
-        <v>110.6</v>
+        <f t="shared" si="4"/>
+        <v>1105.55</v>
       </c>
       <c r="R56">
         <f t="shared" si="8"/>
-        <v>419.99999999999983</v>
+        <v>4200</v>
       </c>
       <c r="AA56">
         <v>52</v>
       </c>
       <c r="AB56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+159</v>
       </c>
       <c r="AC56">
@@ -6594,18 +6610,18 @@
         <v>42</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="7"/>
-        <v>116.9</v>
+        <f t="shared" si="4"/>
+        <v>1168.55</v>
       </c>
       <c r="R57">
         <f t="shared" si="8"/>
-        <v>420.00000000000074</v>
+        <v>4200</v>
       </c>
       <c r="AA57">
         <v>53</v>
       </c>
       <c r="AB57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+160</v>
       </c>
       <c r="AC57">
@@ -6636,18 +6652,18 @@
         <v>43.5</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="7"/>
-        <v>123.5</v>
+        <f t="shared" si="4"/>
+        <v>1234.55</v>
       </c>
       <c r="R58">
         <f t="shared" si="8"/>
-        <v>439.9999999999996</v>
+        <v>4400</v>
       </c>
       <c r="AA58">
         <v>54</v>
       </c>
       <c r="AB58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000002E+161</v>
       </c>
       <c r="AC58">
@@ -6678,18 +6694,18 @@
         <v>45</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="7"/>
-        <v>130.1</v>
+        <f t="shared" si="4"/>
+        <v>1300.55</v>
       </c>
       <c r="R59">
         <f t="shared" si="8"/>
-        <v>439.9999999999996</v>
+        <v>4400</v>
       </c>
       <c r="AA59">
         <v>55</v>
       </c>
       <c r="AB59" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+162</v>
       </c>
       <c r="AC59">
@@ -6720,18 +6736,18 @@
         <v>46.5</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="7"/>
-        <v>137</v>
+        <f t="shared" si="4"/>
+        <v>1369.55</v>
       </c>
       <c r="R60">
         <f t="shared" si="8"/>
-        <v>460.0000000000004</v>
+        <v>4600</v>
       </c>
       <c r="AA60">
         <v>56</v>
       </c>
       <c r="AB60" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+163</v>
       </c>
       <c r="AC60">
@@ -6739,7 +6755,7 @@
       </c>
     </row>
     <row r="61" spans="11:29" x14ac:dyDescent="0.3">
-      <c r="K61">
+      <c r="K61" s="6">
         <v>56</v>
       </c>
       <c r="L61" t="s">
@@ -6762,18 +6778,18 @@
         <v>48</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="7"/>
-        <v>143.9</v>
+        <f t="shared" si="4"/>
+        <v>1438.55</v>
       </c>
       <c r="R61">
         <f t="shared" si="8"/>
-        <v>460.0000000000004</v>
+        <v>4600</v>
       </c>
       <c r="AA61">
         <v>57</v>
       </c>
       <c r="AB61" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+164</v>
       </c>
       <c r="AC61">
@@ -6804,18 +6820,18 @@
         <v>49.5</v>
       </c>
       <c r="Q62">
-        <f t="shared" si="7"/>
-        <v>150.80000000000001</v>
+        <f t="shared" si="4"/>
+        <v>1507.55</v>
       </c>
       <c r="R62">
         <f t="shared" si="8"/>
-        <v>460.0000000000004</v>
+        <v>4600</v>
       </c>
       <c r="AA62">
         <v>58</v>
       </c>
       <c r="AB62" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+165</v>
       </c>
       <c r="AC62">
@@ -6846,18 +6862,18 @@
         <v>51</v>
       </c>
       <c r="Q63">
-        <f t="shared" si="7"/>
-        <v>158</v>
+        <f t="shared" si="4"/>
+        <v>1579.55</v>
       </c>
       <c r="R63">
         <f t="shared" si="8"/>
-        <v>479.99999999999926</v>
+        <v>4800</v>
       </c>
       <c r="AA63">
         <v>59</v>
       </c>
       <c r="AB63" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0000000000000001E+166</v>
       </c>
       <c r="AC63">
@@ -6888,18 +6904,18 @@
         <v>52.5</v>
       </c>
       <c r="Q64">
-        <f t="shared" si="7"/>
-        <v>165.2</v>
+        <f t="shared" si="4"/>
+        <v>1651.55</v>
       </c>
       <c r="R64">
         <f t="shared" si="8"/>
-        <v>479.99999999999926</v>
+        <v>4800</v>
       </c>
       <c r="AA64">
         <v>60</v>
       </c>
       <c r="AB64" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1E+167</v>
       </c>
       <c r="AC64">
@@ -6930,18 +6946,18 @@
         <v>54.25</v>
       </c>
       <c r="Q65">
-        <f t="shared" si="7"/>
-        <v>173.95</v>
+        <f t="shared" si="4"/>
+        <v>1739.05</v>
       </c>
       <c r="R65">
         <f t="shared" si="8"/>
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="AA65">
         <v>61</v>
       </c>
       <c r="AB65" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999993E+167</v>
       </c>
       <c r="AC65">
@@ -6972,18 +6988,18 @@
         <v>56</v>
       </c>
       <c r="Q66">
-        <f t="shared" si="7"/>
-        <v>182.7</v>
+        <f t="shared" si="4"/>
+        <v>1826.55</v>
       </c>
       <c r="R66">
         <f t="shared" si="8"/>
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="AA66">
         <v>62</v>
       </c>
       <c r="AB66" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999993E+168</v>
       </c>
       <c r="AC66">
@@ -7014,18 +7030,18 @@
         <v>57.75</v>
       </c>
       <c r="Q67">
-        <f t="shared" si="7"/>
-        <v>191.45</v>
+        <f t="shared" si="4"/>
+        <v>1914.05</v>
       </c>
       <c r="R67">
         <f t="shared" si="8"/>
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="AA67">
         <v>63</v>
       </c>
       <c r="AB67" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.999999999999999E+169</v>
       </c>
       <c r="AC67">
@@ -7056,18 +7072,18 @@
         <v>59.5</v>
       </c>
       <c r="Q68">
-        <f t="shared" si="7"/>
-        <v>200.55</v>
+        <f t="shared" si="4"/>
+        <v>2005.05</v>
       </c>
       <c r="R68">
         <f t="shared" si="8"/>
-        <v>520.00000000000125</v>
+        <v>5200</v>
       </c>
       <c r="AA68">
         <v>64</v>
       </c>
       <c r="AB68" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999995E+170</v>
       </c>
       <c r="AC68">
@@ -7098,18 +7114,18 @@
         <v>61.25</v>
       </c>
       <c r="Q69">
-        <f t="shared" si="7"/>
-        <v>209.65</v>
+        <f t="shared" si="4"/>
+        <v>2096.0500000000002</v>
       </c>
       <c r="R69">
         <f t="shared" si="8"/>
-        <v>519.99999999999966</v>
+        <v>5200.0000000000127</v>
       </c>
       <c r="AA69">
         <v>65</v>
       </c>
       <c r="AB69" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.9999999999999991E+171</v>
       </c>
       <c r="AC69">
@@ -7140,12 +7156,12 @@
         <v>63</v>
       </c>
       <c r="Q70">
-        <f t="shared" si="7"/>
-        <v>219.1</v>
+        <f t="shared" si="4"/>
+        <v>2190.5500000000002</v>
       </c>
       <c r="R70">
         <f t="shared" si="8"/>
-        <v>539.99999999999932</v>
+        <v>5400</v>
       </c>
       <c r="AA70">
         <v>66</v>
@@ -7182,12 +7198,12 @@
         <v>64.75</v>
       </c>
       <c r="Q71">
-        <f t="shared" ref="Q71:Q104" si="13">ROUNDUP(Q70+0.05*N71*(QUOTIENT(K71,2.5)+1),2)</f>
-        <v>228.55</v>
+        <f t="shared" ref="Q71:Q104" si="13">ROUNDUP(Q70+0.5*N71*(QUOTIENT(K71,2.5)+1),2)</f>
+        <v>2285.0500000000002</v>
       </c>
       <c r="R71">
         <f t="shared" ref="R71:R104" si="14">(Q71-Q70)*100/O71</f>
-        <v>540.00000000000102</v>
+        <v>5400</v>
       </c>
       <c r="AA71">
         <v>67</v>
@@ -7225,11 +7241,11 @@
       </c>
       <c r="Q72">
         <f t="shared" si="13"/>
-        <v>238</v>
+        <v>2379.5500000000002</v>
       </c>
       <c r="R72">
         <f t="shared" si="14"/>
-        <v>539.99999999999932</v>
+        <v>5400</v>
       </c>
       <c r="AA72">
         <v>68</v>
@@ -7267,11 +7283,11 @@
       </c>
       <c r="Q73">
         <f t="shared" si="13"/>
-        <v>247.8</v>
+        <v>2477.5500000000002</v>
       </c>
       <c r="R73">
         <f t="shared" si="14"/>
-        <v>560.00000000000068</v>
+        <v>5600</v>
       </c>
       <c r="AA73">
         <v>69</v>
@@ -7309,11 +7325,11 @@
       </c>
       <c r="Q74">
         <f t="shared" si="13"/>
-        <v>257.60000000000002</v>
+        <v>2575.5500000000002</v>
       </c>
       <c r="R74">
         <f t="shared" si="14"/>
-        <v>560.00000000000068</v>
+        <v>5600</v>
       </c>
       <c r="AA74">
         <v>70</v>
@@ -7351,11 +7367,11 @@
       </c>
       <c r="Q75">
         <f t="shared" si="13"/>
-        <v>269.2</v>
+        <v>2691.55</v>
       </c>
       <c r="R75">
         <f t="shared" si="14"/>
-        <v>579.99999999999829</v>
+        <v>5800</v>
       </c>
       <c r="AA75">
         <v>71</v>
@@ -7393,11 +7409,11 @@
       </c>
       <c r="Q76">
         <f t="shared" si="13"/>
-        <v>280.8</v>
+        <v>2807.55</v>
       </c>
       <c r="R76">
         <f t="shared" si="14"/>
-        <v>580.00000000000114</v>
+        <v>5800</v>
       </c>
       <c r="AA76">
         <v>72</v>
@@ -7435,11 +7451,11 @@
       </c>
       <c r="Q77">
         <f t="shared" si="13"/>
-        <v>292.39999999999998</v>
+        <v>2923.55</v>
       </c>
       <c r="R77">
         <f t="shared" si="14"/>
-        <v>579.99999999999829</v>
+        <v>5800</v>
       </c>
       <c r="AA77">
         <v>73</v>
@@ -7477,11 +7493,11 @@
       </c>
       <c r="Q78">
         <f t="shared" si="13"/>
-        <v>304.39999999999998</v>
+        <v>3043.55</v>
       </c>
       <c r="R78">
         <f t="shared" si="14"/>
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="AA78">
         <v>74</v>
@@ -7519,11 +7535,11 @@
       </c>
       <c r="Q79">
         <f t="shared" si="13"/>
-        <v>316.39999999999998</v>
+        <v>3163.55</v>
       </c>
       <c r="R79">
         <f t="shared" si="14"/>
-        <v>600</v>
+        <v>6000</v>
       </c>
       <c r="AA79">
         <v>75</v>
@@ -7561,11 +7577,11 @@
       </c>
       <c r="Q80">
         <f t="shared" si="13"/>
-        <v>328.8</v>
+        <v>3287.55</v>
       </c>
       <c r="R80">
         <f t="shared" si="14"/>
-        <v>620.00000000000171</v>
+        <v>6200</v>
       </c>
       <c r="AA80">
         <v>76</v>
@@ -7603,11 +7619,11 @@
       </c>
       <c r="Q81">
         <f t="shared" si="13"/>
-        <v>341.2</v>
+        <v>3411.55</v>
       </c>
       <c r="R81">
         <f t="shared" si="14"/>
-        <v>619.99999999999886</v>
+        <v>6200</v>
       </c>
       <c r="AA81">
         <v>77</v>
@@ -7645,11 +7661,11 @@
       </c>
       <c r="Q82">
         <f t="shared" si="13"/>
-        <v>353.6</v>
+        <v>3535.55</v>
       </c>
       <c r="R82">
         <f t="shared" si="14"/>
-        <v>620.00000000000171</v>
+        <v>6200</v>
       </c>
       <c r="AA82">
         <v>78</v>
@@ -7687,11 +7703,11 @@
       </c>
       <c r="Q83">
         <f t="shared" si="13"/>
-        <v>366.4</v>
+        <v>3663.55</v>
       </c>
       <c r="R83">
         <f t="shared" si="14"/>
-        <v>639.99999999999773</v>
+        <v>6400</v>
       </c>
       <c r="AA83">
         <v>79</v>
@@ -7729,11 +7745,11 @@
       </c>
       <c r="Q84">
         <f t="shared" si="13"/>
-        <v>379.2</v>
+        <v>3791.55</v>
       </c>
       <c r="R84">
         <f t="shared" si="14"/>
-        <v>640.00000000000057</v>
+        <v>6400</v>
       </c>
       <c r="AA84">
         <v>80</v>
@@ -7771,11 +7787,11 @@
       </c>
       <c r="Q85">
         <f t="shared" si="13"/>
-        <v>394.05</v>
+        <v>3940.05</v>
       </c>
       <c r="R85">
         <f t="shared" si="14"/>
-        <v>660.00000000000102</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="86" spans="11:29" x14ac:dyDescent="0.3">
@@ -7803,11 +7819,11 @@
       </c>
       <c r="Q86">
         <f t="shared" si="13"/>
-        <v>408.9</v>
+        <v>4088.55</v>
       </c>
       <c r="R86">
         <f t="shared" si="14"/>
-        <v>659.99999999999852</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="87" spans="11:29" x14ac:dyDescent="0.3">
@@ -7835,11 +7851,11 @@
       </c>
       <c r="Q87">
         <f t="shared" si="13"/>
-        <v>423.75</v>
+        <v>4237.05</v>
       </c>
       <c r="R87">
         <f t="shared" si="14"/>
-        <v>660.00000000000102</v>
+        <v>6600</v>
       </c>
     </row>
     <row r="88" spans="11:29" x14ac:dyDescent="0.3">
@@ -7867,11 +7883,11 @@
       </c>
       <c r="Q88">
         <f t="shared" si="13"/>
-        <v>439.05</v>
+        <v>4390.05</v>
       </c>
       <c r="R88">
         <f t="shared" si="14"/>
-        <v>680.00000000000045</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="89" spans="11:29" x14ac:dyDescent="0.3">
@@ -7899,11 +7915,11 @@
       </c>
       <c r="Q89">
         <f t="shared" si="13"/>
-        <v>454.35</v>
+        <v>4543.05</v>
       </c>
       <c r="R89">
         <f t="shared" si="14"/>
-        <v>680.00000000000045</v>
+        <v>6800</v>
       </c>
     </row>
     <row r="90" spans="11:29" x14ac:dyDescent="0.3">
@@ -7931,11 +7947,11 @@
       </c>
       <c r="Q90">
         <f t="shared" si="13"/>
-        <v>470.1</v>
+        <v>4700.55</v>
       </c>
       <c r="R90">
         <f t="shared" si="14"/>
-        <v>700</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="91" spans="11:29" x14ac:dyDescent="0.3">
@@ -7963,11 +7979,11 @@
       </c>
       <c r="Q91">
         <f t="shared" si="13"/>
-        <v>485.85</v>
+        <v>4858.05</v>
       </c>
       <c r="R91">
         <f t="shared" si="14"/>
-        <v>700</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="92" spans="11:29" x14ac:dyDescent="0.3">
@@ -7995,11 +8011,11 @@
       </c>
       <c r="Q92">
         <f t="shared" si="13"/>
-        <v>501.6</v>
+        <v>5015.55</v>
       </c>
       <c r="R92">
         <f t="shared" si="14"/>
-        <v>700</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="93" spans="11:29" x14ac:dyDescent="0.3">
@@ -8027,11 +8043,11 @@
       </c>
       <c r="Q93">
         <f t="shared" si="13"/>
-        <v>517.79999999999995</v>
+        <v>5177.55</v>
       </c>
       <c r="R93">
         <f t="shared" si="14"/>
-        <v>719.99999999999693</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="94" spans="11:29" x14ac:dyDescent="0.3">
@@ -8059,11 +8075,11 @@
       </c>
       <c r="Q94">
         <f t="shared" si="13"/>
-        <v>534</v>
+        <v>5339.55</v>
       </c>
       <c r="R94">
         <f t="shared" si="14"/>
-        <v>720.00000000000205</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="95" spans="11:29" x14ac:dyDescent="0.3">
@@ -8091,11 +8107,11 @@
       </c>
       <c r="Q95">
         <f t="shared" si="13"/>
-        <v>552.5</v>
+        <v>5524.55</v>
       </c>
       <c r="R95">
         <f t="shared" si="14"/>
-        <v>740</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="96" spans="11:29" x14ac:dyDescent="0.3">
@@ -8123,11 +8139,11 @@
       </c>
       <c r="Q96">
         <f t="shared" si="13"/>
-        <v>571</v>
+        <v>5709.55</v>
       </c>
       <c r="R96">
         <f t="shared" si="14"/>
-        <v>740</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="97" spans="11:18" x14ac:dyDescent="0.3">
@@ -8155,11 +8171,11 @@
       </c>
       <c r="Q97">
         <f t="shared" si="13"/>
-        <v>589.5</v>
+        <v>5894.55</v>
       </c>
       <c r="R97">
         <f t="shared" si="14"/>
-        <v>740</v>
+        <v>7400</v>
       </c>
     </row>
     <row r="98" spans="11:18" x14ac:dyDescent="0.3">
@@ -8187,11 +8203,11 @@
       </c>
       <c r="Q98">
         <f t="shared" si="13"/>
-        <v>608.5</v>
+        <v>6084.55</v>
       </c>
       <c r="R98">
         <f t="shared" si="14"/>
-        <v>760</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="99" spans="11:18" x14ac:dyDescent="0.3">
@@ -8219,11 +8235,11 @@
       </c>
       <c r="Q99">
         <f t="shared" si="13"/>
-        <v>627.5</v>
+        <v>6274.55</v>
       </c>
       <c r="R99">
         <f t="shared" si="14"/>
-        <v>760</v>
+        <v>7600</v>
       </c>
     </row>
     <row r="100" spans="11:18" x14ac:dyDescent="0.3">
@@ -8251,11 +8267,11 @@
       </c>
       <c r="Q100">
         <f t="shared" si="13"/>
-        <v>647</v>
+        <v>6469.55</v>
       </c>
       <c r="R100">
         <f t="shared" si="14"/>
-        <v>780</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="101" spans="11:18" x14ac:dyDescent="0.3">
@@ -8283,11 +8299,11 @@
       </c>
       <c r="Q101">
         <f t="shared" si="13"/>
-        <v>666.5</v>
+        <v>6664.55</v>
       </c>
       <c r="R101">
         <f t="shared" si="14"/>
-        <v>780</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="102" spans="11:18" x14ac:dyDescent="0.3">
@@ -8315,11 +8331,11 @@
       </c>
       <c r="Q102">
         <f t="shared" si="13"/>
-        <v>686</v>
+        <v>6859.55</v>
       </c>
       <c r="R102">
         <f t="shared" si="14"/>
-        <v>780</v>
+        <v>7800</v>
       </c>
     </row>
     <row r="103" spans="11:18" x14ac:dyDescent="0.3">
@@ -8347,11 +8363,11 @@
       </c>
       <c r="Q103">
         <f t="shared" si="13"/>
-        <v>706</v>
+        <v>7059.55</v>
       </c>
       <c r="R103">
         <f t="shared" si="14"/>
-        <v>800</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="104" spans="11:18" x14ac:dyDescent="0.3">
@@ -8379,11 +8395,11 @@
       </c>
       <c r="Q104">
         <f t="shared" si="13"/>
-        <v>726</v>
+        <v>7259.55</v>
       </c>
       <c r="R104">
         <f t="shared" si="14"/>
-        <v>800</v>
+        <v>8000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/StudentTable.xlsx
+++ b/Assets/06.Table/StudentTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCBCA39-D47E-41B9-98C6-B69E17D5560E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED3FE5E-6D7F-4B13-B738-9000C8607F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBB89704-E8C9-4645-84CD-F80943CBDC5E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="79">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -304,6 +304,9 @@
   <si>
     <t>화경 문하생</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화경 문하생</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA1F7901-74A4-45CF-AEE1-8FE260879CEC}">
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4789,14 +4792,14 @@
         <v>75</v>
       </c>
       <c r="D132">
-        <f t="shared" ref="D132:D151" si="4">D131</f>
+        <f t="shared" ref="D132:D195" si="4">D131</f>
         <v>9064</v>
       </c>
       <c r="E132">
         <v>135000</v>
       </c>
       <c r="F132">
-        <f t="shared" ref="F132:F151" si="5">F131</f>
+        <f t="shared" ref="F132:F195" si="5">F131</f>
         <v>106</v>
       </c>
       <c r="G132">
@@ -5396,13 +5399,1563 @@
       </c>
       <c r="I151">
         <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>150</v>
+      </c>
+      <c r="C152" t="s">
+        <v>78</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E152">
+        <v>155000</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G152">
+        <v>20164.55</v>
+      </c>
+      <c r="H152">
+        <v>427</v>
+      </c>
+      <c r="I152">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>151</v>
+      </c>
+      <c r="C153" t="s">
+        <v>78</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E153">
+        <v>155000</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G153">
+        <v>20469.55</v>
+      </c>
+      <c r="H153">
+        <v>427</v>
+      </c>
+      <c r="I153">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>152</v>
+      </c>
+      <c r="C154" t="s">
+        <v>78</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E154">
+        <v>155000</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G154">
+        <v>20774.55</v>
+      </c>
+      <c r="H154">
+        <v>427</v>
+      </c>
+      <c r="I154">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>153</v>
+      </c>
+      <c r="C155" t="s">
+        <v>78</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E155">
+        <v>155000</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G155">
+        <v>21084.55</v>
+      </c>
+      <c r="H155">
+        <v>427</v>
+      </c>
+      <c r="I155">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>154</v>
+      </c>
+      <c r="C156" t="s">
+        <v>78</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E156">
+        <v>155000</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G156">
+        <v>21394.55</v>
+      </c>
+      <c r="H156">
+        <v>427</v>
+      </c>
+      <c r="I156">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>155</v>
+      </c>
+      <c r="C157" t="s">
+        <v>78</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E157">
+        <v>160000</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G157">
+        <v>21709.55</v>
+      </c>
+      <c r="H157">
+        <v>427</v>
+      </c>
+      <c r="I157">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>156</v>
+      </c>
+      <c r="C158" t="s">
+        <v>78</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E158">
+        <v>160000</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G158">
+        <v>22024.55</v>
+      </c>
+      <c r="H158">
+        <v>427</v>
+      </c>
+      <c r="I158">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>78</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E159">
+        <v>160000</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G159">
+        <v>22339.55</v>
+      </c>
+      <c r="H159">
+        <v>427</v>
+      </c>
+      <c r="I159">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>158</v>
+      </c>
+      <c r="C160" t="s">
+        <v>78</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E160">
+        <v>160000</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G160">
+        <v>22659.55</v>
+      </c>
+      <c r="H160">
+        <v>427</v>
+      </c>
+      <c r="I160">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>159</v>
+      </c>
+      <c r="C161" t="s">
+        <v>78</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E161">
+        <v>160000</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G161">
+        <v>22979.55</v>
+      </c>
+      <c r="H161">
+        <v>427</v>
+      </c>
+      <c r="I161">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>160</v>
+      </c>
+      <c r="C162" t="s">
+        <v>78</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E162">
+        <v>165000</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G162">
+        <v>23304.55</v>
+      </c>
+      <c r="H162">
+        <v>428</v>
+      </c>
+      <c r="I162">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>161</v>
+      </c>
+      <c r="C163" t="s">
+        <v>78</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E163">
+        <v>165000</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G163">
+        <v>23629.55</v>
+      </c>
+      <c r="H163">
+        <v>428</v>
+      </c>
+      <c r="I163">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>162</v>
+      </c>
+      <c r="C164" t="s">
+        <v>78</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E164">
+        <v>165000</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G164">
+        <v>23954.55</v>
+      </c>
+      <c r="H164">
+        <v>428</v>
+      </c>
+      <c r="I164">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>163</v>
+      </c>
+      <c r="C165" t="s">
+        <v>78</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E165">
+        <v>165000</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G165">
+        <v>24284.55</v>
+      </c>
+      <c r="H165">
+        <v>428</v>
+      </c>
+      <c r="I165">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>164</v>
+      </c>
+      <c r="C166" t="s">
+        <v>78</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E166">
+        <v>165000</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G166">
+        <v>24614.55</v>
+      </c>
+      <c r="H166">
+        <v>428</v>
+      </c>
+      <c r="I166">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>165</v>
+      </c>
+      <c r="C167" t="s">
+        <v>78</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E167">
+        <v>170000</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G167">
+        <v>24949.55</v>
+      </c>
+      <c r="H167">
+        <v>428</v>
+      </c>
+      <c r="I167">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>166</v>
+      </c>
+      <c r="C168" t="s">
+        <v>78</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E168">
+        <v>170000</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G168">
+        <v>25284.55</v>
+      </c>
+      <c r="H168">
+        <v>428</v>
+      </c>
+      <c r="I168">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>167</v>
+      </c>
+      <c r="C169" t="s">
+        <v>78</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E169">
+        <v>170000</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G169">
+        <v>25619.55</v>
+      </c>
+      <c r="H169">
+        <v>428</v>
+      </c>
+      <c r="I169">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>168</v>
+      </c>
+      <c r="C170" t="s">
+        <v>78</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E170">
+        <v>170000</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G170">
+        <v>25959.55</v>
+      </c>
+      <c r="H170">
+        <v>428</v>
+      </c>
+      <c r="I170">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>169</v>
+      </c>
+      <c r="C171" t="s">
+        <v>78</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E171">
+        <v>170000</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G171">
+        <v>26299.55</v>
+      </c>
+      <c r="H171">
+        <v>428</v>
+      </c>
+      <c r="I171">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>170</v>
+      </c>
+      <c r="C172" t="s">
+        <v>78</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E172">
+        <v>175000</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G172">
+        <v>26644.55</v>
+      </c>
+      <c r="H172">
+        <v>429</v>
+      </c>
+      <c r="I172">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>171</v>
+      </c>
+      <c r="C173" t="s">
+        <v>78</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E173">
+        <v>175000</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G173">
+        <v>26989.55</v>
+      </c>
+      <c r="H173">
+        <v>429</v>
+      </c>
+      <c r="I173">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>172</v>
+      </c>
+      <c r="C174" t="s">
+        <v>78</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E174">
+        <v>175000</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G174">
+        <v>27334.55</v>
+      </c>
+      <c r="H174">
+        <v>429</v>
+      </c>
+      <c r="I174">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>173</v>
+      </c>
+      <c r="C175" t="s">
+        <v>78</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E175">
+        <v>175000</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G175">
+        <v>27684.55</v>
+      </c>
+      <c r="H175">
+        <v>429</v>
+      </c>
+      <c r="I175">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>174</v>
+      </c>
+      <c r="C176" t="s">
+        <v>78</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E176">
+        <v>175000</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G176">
+        <v>28034.55</v>
+      </c>
+      <c r="H176">
+        <v>429</v>
+      </c>
+      <c r="I176">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>175</v>
+      </c>
+      <c r="C177" t="s">
+        <v>78</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E177">
+        <v>180000</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G177">
+        <v>28389.55</v>
+      </c>
+      <c r="H177">
+        <v>429</v>
+      </c>
+      <c r="I177">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>176</v>
+      </c>
+      <c r="C178" t="s">
+        <v>78</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E178">
+        <v>180000</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G178">
+        <v>28744.55</v>
+      </c>
+      <c r="H178">
+        <v>429</v>
+      </c>
+      <c r="I178">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>177</v>
+      </c>
+      <c r="C179" t="s">
+        <v>78</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E179">
+        <v>180000</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G179">
+        <v>29099.55</v>
+      </c>
+      <c r="H179">
+        <v>429</v>
+      </c>
+      <c r="I179">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>178</v>
+      </c>
+      <c r="C180" t="s">
+        <v>78</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E180">
+        <v>180000</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G180">
+        <v>29459.55</v>
+      </c>
+      <c r="H180">
+        <v>429</v>
+      </c>
+      <c r="I180">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>179</v>
+      </c>
+      <c r="C181" t="s">
+        <v>78</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E181">
+        <v>180000</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G181">
+        <v>29819.55</v>
+      </c>
+      <c r="H181">
+        <v>429</v>
+      </c>
+      <c r="I181">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>180</v>
+      </c>
+      <c r="C182" t="s">
+        <v>78</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E182">
+        <v>185000</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G182">
+        <v>30184.55</v>
+      </c>
+      <c r="H182">
+        <v>430</v>
+      </c>
+      <c r="I182">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>181</v>
+      </c>
+      <c r="C183" t="s">
+        <v>78</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E183">
+        <v>185000</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G183">
+        <v>30549.55</v>
+      </c>
+      <c r="H183">
+        <v>430</v>
+      </c>
+      <c r="I183">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>182</v>
+      </c>
+      <c r="C184" t="s">
+        <v>78</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E184">
+        <v>185000</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G184">
+        <v>30914.55</v>
+      </c>
+      <c r="H184">
+        <v>430</v>
+      </c>
+      <c r="I184">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>183</v>
+      </c>
+      <c r="C185" t="s">
+        <v>78</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E185">
+        <v>185000</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G185">
+        <v>31284.55</v>
+      </c>
+      <c r="H185">
+        <v>430</v>
+      </c>
+      <c r="I185">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>184</v>
+      </c>
+      <c r="C186" t="s">
+        <v>78</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E186">
+        <v>185000</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G186">
+        <v>31654.55</v>
+      </c>
+      <c r="H186">
+        <v>430</v>
+      </c>
+      <c r="I186">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>185</v>
+      </c>
+      <c r="C187" t="s">
+        <v>78</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E187">
+        <v>190000</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G187">
+        <v>32029.55</v>
+      </c>
+      <c r="H187">
+        <v>430</v>
+      </c>
+      <c r="I187">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>186</v>
+      </c>
+      <c r="C188" t="s">
+        <v>78</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E188">
+        <v>190000</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G188">
+        <v>32404.55</v>
+      </c>
+      <c r="H188">
+        <v>430</v>
+      </c>
+      <c r="I188">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>187</v>
+      </c>
+      <c r="C189" t="s">
+        <v>78</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E189">
+        <v>190000</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G189">
+        <v>32779.550000000003</v>
+      </c>
+      <c r="H189">
+        <v>430</v>
+      </c>
+      <c r="I189">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>188</v>
+      </c>
+      <c r="C190" t="s">
+        <v>78</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E190">
+        <v>190000</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G190">
+        <v>33159.550000000003</v>
+      </c>
+      <c r="H190">
+        <v>430</v>
+      </c>
+      <c r="I190">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>189</v>
+      </c>
+      <c r="C191" t="s">
+        <v>78</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E191">
+        <v>190000</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G191">
+        <v>33539.550000000003</v>
+      </c>
+      <c r="H191">
+        <v>430</v>
+      </c>
+      <c r="I191">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>190</v>
+      </c>
+      <c r="C192" t="s">
+        <v>78</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E192">
+        <v>195000</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G192">
+        <v>33924.550000000003</v>
+      </c>
+      <c r="H192">
+        <v>431</v>
+      </c>
+      <c r="I192">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>191</v>
+      </c>
+      <c r="C193" t="s">
+        <v>78</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E193">
+        <v>195000</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G193">
+        <v>34309.550000000003</v>
+      </c>
+      <c r="H193">
+        <v>431</v>
+      </c>
+      <c r="I193">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>192</v>
+      </c>
+      <c r="C194" t="s">
+        <v>78</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E194">
+        <v>195000</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G194">
+        <v>34694.550000000003</v>
+      </c>
+      <c r="H194">
+        <v>431</v>
+      </c>
+      <c r="I194">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>193</v>
+      </c>
+      <c r="C195" t="s">
+        <v>78</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="4"/>
+        <v>9064</v>
+      </c>
+      <c r="E195">
+        <v>195000</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="G195">
+        <v>35084.550000000003</v>
+      </c>
+      <c r="H195">
+        <v>431</v>
+      </c>
+      <c r="I195">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>194</v>
+      </c>
+      <c r="C196" t="s">
+        <v>78</v>
+      </c>
+      <c r="D196">
+        <f t="shared" ref="D196:D201" si="6">D195</f>
+        <v>9064</v>
+      </c>
+      <c r="E196">
+        <v>195000</v>
+      </c>
+      <c r="F196">
+        <f t="shared" ref="F196:F201" si="7">F195</f>
+        <v>106</v>
+      </c>
+      <c r="G196">
+        <v>35474.550000000003</v>
+      </c>
+      <c r="H196">
+        <v>431</v>
+      </c>
+      <c r="I196">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>195</v>
+      </c>
+      <c r="C197" t="s">
+        <v>78</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="6"/>
+        <v>9064</v>
+      </c>
+      <c r="E197">
+        <v>200000</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="G197">
+        <v>35869.550000000003</v>
+      </c>
+      <c r="H197">
+        <v>431</v>
+      </c>
+      <c r="I197">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>196</v>
+      </c>
+      <c r="C198" t="s">
+        <v>78</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="6"/>
+        <v>9064</v>
+      </c>
+      <c r="E198">
+        <v>200000</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="G198">
+        <v>36264.550000000003</v>
+      </c>
+      <c r="H198">
+        <v>431</v>
+      </c>
+      <c r="I198">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>197</v>
+      </c>
+      <c r="C199" t="s">
+        <v>78</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="6"/>
+        <v>9064</v>
+      </c>
+      <c r="E199">
+        <v>200000</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="G199">
+        <v>36659.550000000003</v>
+      </c>
+      <c r="H199">
+        <v>431</v>
+      </c>
+      <c r="I199">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>198</v>
+      </c>
+      <c r="C200" t="s">
+        <v>78</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="6"/>
+        <v>9064</v>
+      </c>
+      <c r="E200">
+        <v>200000</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="G200">
+        <v>37059.550000000003</v>
+      </c>
+      <c r="H200">
+        <v>431</v>
+      </c>
+      <c r="I200">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>199</v>
+      </c>
+      <c r="C201" t="s">
+        <v>78</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="6"/>
+        <v>9064</v>
+      </c>
+      <c r="E201">
+        <v>200000</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="G201">
+        <v>37459.550000000003</v>
+      </c>
+      <c r="H201">
+        <v>431</v>
+      </c>
+      <c r="I201">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="E152:E1048576" formula="1"/>
+    <ignoredError sqref="E202:E1048576" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5411,8 +6964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536973B6-8AC6-4718-8BFC-B5F1F19019F3}">
   <dimension ref="D2:AC204"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="J143" workbookViewId="0">
+      <selection activeCell="Q155" sqref="Q155:Q204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
